--- a/template/Validation.xlsx
+++ b/template/Validation.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Validation" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Validation!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">base!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -493,6 +493,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -508,44 +537,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -961,7 +961,7 @@
   <dimension ref="A1:AI163"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D27" sqref="D27:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -976,39 +976,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="23" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="15" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
       <c r="AB1" s="17" t="s">
         <v>11</v>
       </c>
@@ -1023,33 +1023,33 @@
       <c r="AI1" s="17"/>
     </row>
     <row r="2" spans="1:35" ht="23" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
       <c r="AB2" s="17" t="s">
         <v>13</v>
       </c>
@@ -1064,37 +1064,37 @@
       <c r="AI2" s="17"/>
     </row>
     <row r="3" spans="1:35" ht="23" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="20" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
       <c r="AB3" s="22"/>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
@@ -1105,33 +1105,33 @@
       <c r="AI3" s="22"/>
     </row>
     <row r="4" spans="1:35" ht="23" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
       <c r="AB4" s="22"/>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -1180,3385 +1180,3385 @@
     </row>
     <row r="6" spans="1:35" ht="24" customHeight="1">
       <c r="A6" s="6"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26" t="s">
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26" t="s">
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="30"/>
       <c r="AI6" s="7"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="14"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="25"/>
       <c r="AI7" s="7"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="14"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="25"/>
       <c r="AI8" s="7"/>
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="14"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="25"/>
       <c r="AI9" s="7"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="14"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="25"/>
       <c r="AI10" s="7"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="14"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="25"/>
       <c r="AI11" s="7"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="14"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="25"/>
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="14"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="25"/>
       <c r="AI13" s="7"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="14"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="25"/>
       <c r="AI14" s="7"/>
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="14"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="25"/>
       <c r="AI15" s="7"/>
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="14"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="25"/>
       <c r="AI16" s="7"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="14"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="25"/>
       <c r="AI17" s="7"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="14"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="25"/>
       <c r="AI18" s="7"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="14"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="25"/>
       <c r="AI19" s="7"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="14"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="25"/>
       <c r="AI20" s="7"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="14"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="25"/>
       <c r="AI21" s="7"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="14"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="25"/>
       <c r="AI22" s="7"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="14"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="25"/>
       <c r="AI23" s="7"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="14"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="25"/>
       <c r="AI24" s="7"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="14"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="25"/>
       <c r="AI25" s="7"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="14"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="24"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+      <c r="AF26" s="24"/>
+      <c r="AG26" s="24"/>
+      <c r="AH26" s="25"/>
       <c r="AI26" s="7"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="14"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="23"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="24"/>
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="25"/>
       <c r="AI27" s="7"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="14"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="25"/>
       <c r="AI28" s="7"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="14"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="24"/>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="24"/>
+      <c r="AG29" s="24"/>
+      <c r="AH29" s="25"/>
       <c r="AI29" s="7"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="14"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="24"/>
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="24"/>
+      <c r="AG30" s="24"/>
+      <c r="AH30" s="25"/>
       <c r="AI30" s="7"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="14"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="24"/>
+      <c r="AH31" s="25"/>
       <c r="AI31" s="7"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="14"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="24"/>
+      <c r="AG32" s="24"/>
+      <c r="AH32" s="25"/>
       <c r="AI32" s="7"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="12"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="14"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="24"/>
+      <c r="AG33" s="24"/>
+      <c r="AH33" s="25"/>
       <c r="AI33" s="7"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="12"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="14"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="23"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="24"/>
+      <c r="AG34" s="24"/>
+      <c r="AH34" s="25"/>
       <c r="AI34" s="7"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="14"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="25"/>
       <c r="AI35" s="7"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="12"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="14"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="23"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="24"/>
+      <c r="AG36" s="24"/>
+      <c r="AH36" s="25"/>
       <c r="AI36" s="7"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="12"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="14"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="25"/>
       <c r="AI37" s="7"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="14"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="23"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="24"/>
+      <c r="AG38" s="24"/>
+      <c r="AH38" s="25"/>
       <c r="AI38" s="7"/>
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="14"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="23"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="24"/>
+      <c r="AG39" s="24"/>
+      <c r="AH39" s="25"/>
       <c r="AI39" s="7"/>
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="12"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="14"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="23"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="24"/>
+      <c r="AG40" s="24"/>
+      <c r="AH40" s="25"/>
       <c r="AI40" s="7"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="12"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="14"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="24"/>
+      <c r="AH41" s="25"/>
       <c r="AI41" s="7"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="14"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="24"/>
+      <c r="AH42" s="25"/>
       <c r="AI42" s="7"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="14"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="23"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="24"/>
+      <c r="AG43" s="24"/>
+      <c r="AH43" s="25"/>
       <c r="AI43" s="7"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="13"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="14"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="24"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="23"/>
+      <c r="AC44" s="24"/>
+      <c r="AD44" s="24"/>
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="24"/>
+      <c r="AG44" s="24"/>
+      <c r="AH44" s="25"/>
       <c r="AI44" s="7"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="14"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="24"/>
+      <c r="AG45" s="24"/>
+      <c r="AH45" s="25"/>
       <c r="AI45" s="7"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="12"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="14"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="24"/>
+      <c r="AE46" s="24"/>
+      <c r="AF46" s="24"/>
+      <c r="AG46" s="24"/>
+      <c r="AH46" s="25"/>
       <c r="AI46" s="7"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="12"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="14"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="25"/>
       <c r="AI47" s="7"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="14"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="24"/>
+      <c r="AH48" s="25"/>
       <c r="AI48" s="7"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="12"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="14"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="24"/>
+      <c r="AH49" s="25"/>
       <c r="AI49" s="7"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
-      <c r="AG50" s="13"/>
-      <c r="AH50" s="14"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="24"/>
+      <c r="AH50" s="25"/>
       <c r="AI50" s="7"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="13"/>
-      <c r="S51" s="13"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
-      <c r="AG51" s="13"/>
-      <c r="AH51" s="14"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="24"/>
+      <c r="AD51" s="24"/>
+      <c r="AE51" s="24"/>
+      <c r="AF51" s="24"/>
+      <c r="AG51" s="24"/>
+      <c r="AH51" s="25"/>
       <c r="AI51" s="7"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
-      <c r="X52" s="13"/>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="14"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="13"/>
-      <c r="AF52" s="13"/>
-      <c r="AG52" s="13"/>
-      <c r="AH52" s="14"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="24"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="24"/>
+      <c r="AG52" s="24"/>
+      <c r="AH52" s="25"/>
       <c r="AI52" s="7"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="13"/>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="13"/>
-      <c r="AD53" s="13"/>
-      <c r="AE53" s="13"/>
-      <c r="AF53" s="13"/>
-      <c r="AG53" s="13"/>
-      <c r="AH53" s="14"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="24"/>
+      <c r="AH53" s="25"/>
       <c r="AI53" s="7"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
-      <c r="S54" s="13"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13"/>
-      <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="13"/>
-      <c r="AE54" s="13"/>
-      <c r="AF54" s="13"/>
-      <c r="AG54" s="13"/>
-      <c r="AH54" s="14"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="24"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="25"/>
       <c r="AI54" s="7"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="13"/>
-      <c r="Z55" s="13"/>
-      <c r="AA55" s="14"/>
-      <c r="AB55" s="12"/>
-      <c r="AC55" s="13"/>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="13"/>
-      <c r="AF55" s="13"/>
-      <c r="AG55" s="13"/>
-      <c r="AH55" s="14"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="24"/>
+      <c r="AF55" s="24"/>
+      <c r="AG55" s="24"/>
+      <c r="AH55" s="25"/>
       <c r="AI55" s="7"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="12"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="13"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
-      <c r="AG56" s="13"/>
-      <c r="AH56" s="14"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+      <c r="AF56" s="24"/>
+      <c r="AG56" s="24"/>
+      <c r="AH56" s="25"/>
       <c r="AI56" s="7"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="13"/>
-      <c r="S57" s="13"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="13"/>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="14"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="13"/>
-      <c r="AH57" s="14"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="23"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+      <c r="X57" s="24"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="24"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="23"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="24"/>
+      <c r="AE57" s="24"/>
+      <c r="AF57" s="24"/>
+      <c r="AG57" s="24"/>
+      <c r="AH57" s="25"/>
       <c r="AI57" s="7"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="14"/>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13"/>
-      <c r="AF58" s="13"/>
-      <c r="AG58" s="13"/>
-      <c r="AH58" s="14"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="24"/>
+      <c r="AE58" s="24"/>
+      <c r="AF58" s="24"/>
+      <c r="AG58" s="24"/>
+      <c r="AH58" s="25"/>
       <c r="AI58" s="7"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="13"/>
-      <c r="S59" s="13"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
-      <c r="Z59" s="13"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="12"/>
-      <c r="AC59" s="13"/>
-      <c r="AD59" s="13"/>
-      <c r="AE59" s="13"/>
-      <c r="AF59" s="13"/>
-      <c r="AG59" s="13"/>
-      <c r="AH59" s="14"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="23"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="23"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="24"/>
+      <c r="AF59" s="24"/>
+      <c r="AG59" s="24"/>
+      <c r="AH59" s="25"/>
       <c r="AI59" s="7"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="13"/>
-      <c r="S60" s="13"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
-      <c r="X60" s="13"/>
-      <c r="Y60" s="13"/>
-      <c r="Z60" s="13"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="12"/>
-      <c r="AC60" s="13"/>
-      <c r="AD60" s="13"/>
-      <c r="AE60" s="13"/>
-      <c r="AF60" s="13"/>
-      <c r="AG60" s="13"/>
-      <c r="AH60" s="14"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="24"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="24"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="23"/>
+      <c r="AC60" s="24"/>
+      <c r="AD60" s="24"/>
+      <c r="AE60" s="24"/>
+      <c r="AF60" s="24"/>
+      <c r="AG60" s="24"/>
+      <c r="AH60" s="25"/>
       <c r="AI60" s="7"/>
     </row>
     <row r="61" spans="1:35" ht="12" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
-      <c r="Y61" s="13"/>
-      <c r="Z61" s="13"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="12"/>
-      <c r="AC61" s="13"/>
-      <c r="AD61" s="13"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="13"/>
-      <c r="AG61" s="13"/>
-      <c r="AH61" s="14"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="23"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="24"/>
+      <c r="AE61" s="24"/>
+      <c r="AF61" s="24"/>
+      <c r="AG61" s="24"/>
+      <c r="AH61" s="25"/>
       <c r="AI61" s="7"/>
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="12"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="13"/>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
-      <c r="AH62" s="14"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="25"/>
+      <c r="AB62" s="23"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="24"/>
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="24"/>
+      <c r="AG62" s="24"/>
+      <c r="AH62" s="25"/>
       <c r="AI62" s="7"/>
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="13"/>
-      <c r="S63" s="13"/>
-      <c r="T63" s="14"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
-      <c r="X63" s="13"/>
-      <c r="Y63" s="13"/>
-      <c r="Z63" s="13"/>
-      <c r="AA63" s="14"/>
-      <c r="AB63" s="12"/>
-      <c r="AC63" s="13"/>
-      <c r="AD63" s="13"/>
-      <c r="AE63" s="13"/>
-      <c r="AF63" s="13"/>
-      <c r="AG63" s="13"/>
-      <c r="AH63" s="14"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="23"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="24"/>
+      <c r="AH63" s="25"/>
       <c r="AI63" s="7"/>
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="13"/>
-      <c r="S64" s="13"/>
-      <c r="T64" s="14"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="13"/>
-      <c r="Y64" s="13"/>
-      <c r="Z64" s="13"/>
-      <c r="AA64" s="14"/>
-      <c r="AB64" s="12"/>
-      <c r="AC64" s="13"/>
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="13"/>
-      <c r="AF64" s="13"/>
-      <c r="AG64" s="13"/>
-      <c r="AH64" s="14"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="24"/>
+      <c r="AG64" s="24"/>
+      <c r="AH64" s="25"/>
       <c r="AI64" s="7"/>
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="13"/>
-      <c r="S65" s="13"/>
-      <c r="T65" s="14"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
-      <c r="X65" s="13"/>
-      <c r="Y65" s="13"/>
-      <c r="Z65" s="13"/>
-      <c r="AA65" s="14"/>
-      <c r="AB65" s="12"/>
-      <c r="AC65" s="13"/>
-      <c r="AD65" s="13"/>
-      <c r="AE65" s="13"/>
-      <c r="AF65" s="13"/>
-      <c r="AG65" s="13"/>
-      <c r="AH65" s="14"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="25"/>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="25"/>
       <c r="AI65" s="7"/>
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
-      <c r="T66" s="14"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="13"/>
-      <c r="X66" s="13"/>
-      <c r="Y66" s="13"/>
-      <c r="Z66" s="13"/>
-      <c r="AA66" s="14"/>
-      <c r="AB66" s="12"/>
-      <c r="AC66" s="13"/>
-      <c r="AD66" s="13"/>
-      <c r="AE66" s="13"/>
-      <c r="AF66" s="13"/>
-      <c r="AG66" s="13"/>
-      <c r="AH66" s="14"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="25"/>
       <c r="AI66" s="7"/>
     </row>
     <row r="67" spans="1:35" ht="12" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="13"/>
-      <c r="S67" s="13"/>
-      <c r="T67" s="14"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="13"/>
-      <c r="X67" s="13"/>
-      <c r="Y67" s="13"/>
-      <c r="Z67" s="13"/>
-      <c r="AA67" s="14"/>
-      <c r="AB67" s="12"/>
-      <c r="AC67" s="13"/>
-      <c r="AD67" s="13"/>
-      <c r="AE67" s="13"/>
-      <c r="AF67" s="13"/>
-      <c r="AG67" s="13"/>
-      <c r="AH67" s="14"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="25"/>
       <c r="AI67" s="7"/>
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="13"/>
-      <c r="S68" s="13"/>
-      <c r="T68" s="14"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="X68" s="13"/>
-      <c r="Y68" s="13"/>
-      <c r="Z68" s="13"/>
-      <c r="AA68" s="14"/>
-      <c r="AB68" s="12"/>
-      <c r="AC68" s="13"/>
-      <c r="AD68" s="13"/>
-      <c r="AE68" s="13"/>
-      <c r="AF68" s="13"/>
-      <c r="AG68" s="13"/>
-      <c r="AH68" s="14"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="25"/>
+      <c r="AB68" s="23"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="24"/>
+      <c r="AF68" s="24"/>
+      <c r="AG68" s="24"/>
+      <c r="AH68" s="25"/>
       <c r="AI68" s="7"/>
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="14"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="13"/>
-      <c r="AA69" s="14"/>
-      <c r="AB69" s="12"/>
-      <c r="AC69" s="13"/>
-      <c r="AD69" s="13"/>
-      <c r="AE69" s="13"/>
-      <c r="AF69" s="13"/>
-      <c r="AG69" s="13"/>
-      <c r="AH69" s="14"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="25"/>
       <c r="AI69" s="7"/>
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="13"/>
-      <c r="S70" s="13"/>
-      <c r="T70" s="14"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="13"/>
-      <c r="X70" s="13"/>
-      <c r="Y70" s="13"/>
-      <c r="Z70" s="13"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="12"/>
-      <c r="AC70" s="13"/>
-      <c r="AD70" s="13"/>
-      <c r="AE70" s="13"/>
-      <c r="AF70" s="13"/>
-      <c r="AG70" s="13"/>
-      <c r="AH70" s="14"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="23"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+      <c r="AF70" s="24"/>
+      <c r="AG70" s="24"/>
+      <c r="AH70" s="25"/>
       <c r="AI70" s="7"/>
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="13"/>
-      <c r="S71" s="13"/>
-      <c r="T71" s="14"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="13"/>
-      <c r="X71" s="13"/>
-      <c r="Y71" s="13"/>
-      <c r="Z71" s="13"/>
-      <c r="AA71" s="14"/>
-      <c r="AB71" s="12"/>
-      <c r="AC71" s="13"/>
-      <c r="AD71" s="13"/>
-      <c r="AE71" s="13"/>
-      <c r="AF71" s="13"/>
-      <c r="AG71" s="13"/>
-      <c r="AH71" s="14"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="23"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24"/>
+      <c r="AE71" s="24"/>
+      <c r="AF71" s="24"/>
+      <c r="AG71" s="24"/>
+      <c r="AH71" s="25"/>
       <c r="AI71" s="7"/>
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="13"/>
-      <c r="S72" s="13"/>
-      <c r="T72" s="14"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
-      <c r="X72" s="13"/>
-      <c r="Y72" s="13"/>
-      <c r="Z72" s="13"/>
-      <c r="AA72" s="14"/>
-      <c r="AB72" s="12"/>
-      <c r="AC72" s="13"/>
-      <c r="AD72" s="13"/>
-      <c r="AE72" s="13"/>
-      <c r="AF72" s="13"/>
-      <c r="AG72" s="13"/>
-      <c r="AH72" s="14"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="24"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="24"/>
+      <c r="S72" s="24"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="24"/>
+      <c r="W72" s="24"/>
+      <c r="X72" s="24"/>
+      <c r="Y72" s="24"/>
+      <c r="Z72" s="24"/>
+      <c r="AA72" s="25"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="24"/>
+      <c r="AD72" s="24"/>
+      <c r="AE72" s="24"/>
+      <c r="AF72" s="24"/>
+      <c r="AG72" s="24"/>
+      <c r="AH72" s="25"/>
       <c r="AI72" s="7"/>
     </row>
     <row r="73" spans="1:35" ht="12" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="13"/>
-      <c r="S73" s="13"/>
-      <c r="T73" s="14"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
-      <c r="X73" s="13"/>
-      <c r="Y73" s="13"/>
-      <c r="Z73" s="13"/>
-      <c r="AA73" s="14"/>
-      <c r="AB73" s="12"/>
-      <c r="AC73" s="13"/>
-      <c r="AD73" s="13"/>
-      <c r="AE73" s="13"/>
-      <c r="AF73" s="13"/>
-      <c r="AG73" s="13"/>
-      <c r="AH73" s="14"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="24"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="24"/>
+      <c r="W73" s="24"/>
+      <c r="X73" s="24"/>
+      <c r="Y73" s="24"/>
+      <c r="Z73" s="24"/>
+      <c r="AA73" s="25"/>
+      <c r="AB73" s="23"/>
+      <c r="AC73" s="24"/>
+      <c r="AD73" s="24"/>
+      <c r="AE73" s="24"/>
+      <c r="AF73" s="24"/>
+      <c r="AG73" s="24"/>
+      <c r="AH73" s="25"/>
       <c r="AI73" s="7"/>
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-      <c r="S74" s="13"/>
-      <c r="T74" s="14"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
-      <c r="X74" s="13"/>
-      <c r="Y74" s="13"/>
-      <c r="Z74" s="13"/>
-      <c r="AA74" s="14"/>
-      <c r="AB74" s="12"/>
-      <c r="AC74" s="13"/>
-      <c r="AD74" s="13"/>
-      <c r="AE74" s="13"/>
-      <c r="AF74" s="13"/>
-      <c r="AG74" s="13"/>
-      <c r="AH74" s="14"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="24"/>
+      <c r="S74" s="24"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="23"/>
+      <c r="V74" s="24"/>
+      <c r="W74" s="24"/>
+      <c r="X74" s="24"/>
+      <c r="Y74" s="24"/>
+      <c r="Z74" s="24"/>
+      <c r="AA74" s="25"/>
+      <c r="AB74" s="23"/>
+      <c r="AC74" s="24"/>
+      <c r="AD74" s="24"/>
+      <c r="AE74" s="24"/>
+      <c r="AF74" s="24"/>
+      <c r="AG74" s="24"/>
+      <c r="AH74" s="25"/>
       <c r="AI74" s="7"/>
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-      <c r="S75" s="13"/>
-      <c r="T75" s="14"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
-      <c r="X75" s="13"/>
-      <c r="Y75" s="13"/>
-      <c r="Z75" s="13"/>
-      <c r="AA75" s="14"/>
-      <c r="AB75" s="12"/>
-      <c r="AC75" s="13"/>
-      <c r="AD75" s="13"/>
-      <c r="AE75" s="13"/>
-      <c r="AF75" s="13"/>
-      <c r="AG75" s="13"/>
-      <c r="AH75" s="14"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="24"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="25"/>
+      <c r="AB75" s="23"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
+      <c r="AH75" s="25"/>
       <c r="AI75" s="7"/>
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="13"/>
-      <c r="S76" s="13"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
-      <c r="X76" s="13"/>
-      <c r="Y76" s="13"/>
-      <c r="Z76" s="13"/>
-      <c r="AA76" s="14"/>
-      <c r="AB76" s="12"/>
-      <c r="AC76" s="13"/>
-      <c r="AD76" s="13"/>
-      <c r="AE76" s="13"/>
-      <c r="AF76" s="13"/>
-      <c r="AG76" s="13"/>
-      <c r="AH76" s="14"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="23"/>
+      <c r="V76" s="24"/>
+      <c r="W76" s="24"/>
+      <c r="X76" s="24"/>
+      <c r="Y76" s="24"/>
+      <c r="Z76" s="24"/>
+      <c r="AA76" s="25"/>
+      <c r="AB76" s="23"/>
+      <c r="AC76" s="24"/>
+      <c r="AD76" s="24"/>
+      <c r="AE76" s="24"/>
+      <c r="AF76" s="24"/>
+      <c r="AG76" s="24"/>
+      <c r="AH76" s="25"/>
       <c r="AI76" s="7"/>
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="13"/>
-      <c r="S77" s="13"/>
-      <c r="T77" s="14"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
-      <c r="X77" s="13"/>
-      <c r="Y77" s="13"/>
-      <c r="Z77" s="13"/>
-      <c r="AA77" s="14"/>
-      <c r="AB77" s="12"/>
-      <c r="AC77" s="13"/>
-      <c r="AD77" s="13"/>
-      <c r="AE77" s="13"/>
-      <c r="AF77" s="13"/>
-      <c r="AG77" s="13"/>
-      <c r="AH77" s="14"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="24"/>
+      <c r="W77" s="24"/>
+      <c r="X77" s="24"/>
+      <c r="Y77" s="24"/>
+      <c r="Z77" s="24"/>
+      <c r="AA77" s="25"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="24"/>
+      <c r="AD77" s="24"/>
+      <c r="AE77" s="24"/>
+      <c r="AF77" s="24"/>
+      <c r="AG77" s="24"/>
+      <c r="AH77" s="25"/>
       <c r="AI77" s="7"/>
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="13"/>
-      <c r="S78" s="13"/>
-      <c r="T78" s="14"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
-      <c r="X78" s="13"/>
-      <c r="Y78" s="13"/>
-      <c r="Z78" s="13"/>
-      <c r="AA78" s="14"/>
-      <c r="AB78" s="12"/>
-      <c r="AC78" s="13"/>
-      <c r="AD78" s="13"/>
-      <c r="AE78" s="13"/>
-      <c r="AF78" s="13"/>
-      <c r="AG78" s="13"/>
-      <c r="AH78" s="14"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="23"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="24"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="25"/>
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="24"/>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="24"/>
+      <c r="AG78" s="24"/>
+      <c r="AH78" s="25"/>
       <c r="AI78" s="7"/>
     </row>
     <row r="79" spans="1:35" ht="12" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="14"/>
-      <c r="U79" s="12"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-      <c r="Y79" s="13"/>
-      <c r="Z79" s="13"/>
-      <c r="AA79" s="14"/>
-      <c r="AB79" s="12"/>
-      <c r="AC79" s="13"/>
-      <c r="AD79" s="13"/>
-      <c r="AE79" s="13"/>
-      <c r="AF79" s="13"/>
-      <c r="AG79" s="13"/>
-      <c r="AH79" s="14"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="24"/>
+      <c r="T79" s="25"/>
+      <c r="U79" s="23"/>
+      <c r="V79" s="24"/>
+      <c r="W79" s="24"/>
+      <c r="X79" s="24"/>
+      <c r="Y79" s="24"/>
+      <c r="Z79" s="24"/>
+      <c r="AA79" s="25"/>
+      <c r="AB79" s="23"/>
+      <c r="AC79" s="24"/>
+      <c r="AD79" s="24"/>
+      <c r="AE79" s="24"/>
+      <c r="AF79" s="24"/>
+      <c r="AG79" s="24"/>
+      <c r="AH79" s="25"/>
       <c r="AI79" s="7"/>
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="14"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="14"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="13"/>
-      <c r="Y80" s="13"/>
-      <c r="Z80" s="13"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="12"/>
-      <c r="AC80" s="13"/>
-      <c r="AD80" s="13"/>
-      <c r="AE80" s="13"/>
-      <c r="AF80" s="13"/>
-      <c r="AG80" s="13"/>
-      <c r="AH80" s="14"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="24"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="24"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="24"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="24"/>
+      <c r="W80" s="24"/>
+      <c r="X80" s="24"/>
+      <c r="Y80" s="24"/>
+      <c r="Z80" s="24"/>
+      <c r="AA80" s="25"/>
+      <c r="AB80" s="23"/>
+      <c r="AC80" s="24"/>
+      <c r="AD80" s="24"/>
+      <c r="AE80" s="24"/>
+      <c r="AF80" s="24"/>
+      <c r="AG80" s="24"/>
+      <c r="AH80" s="25"/>
       <c r="AI80" s="7"/>
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="13"/>
-      <c r="S81" s="13"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="12"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
-      <c r="X81" s="13"/>
-      <c r="Y81" s="13"/>
-      <c r="Z81" s="13"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="12"/>
-      <c r="AC81" s="13"/>
-      <c r="AD81" s="13"/>
-      <c r="AE81" s="13"/>
-      <c r="AF81" s="13"/>
-      <c r="AG81" s="13"/>
-      <c r="AH81" s="14"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="24"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="24"/>
+      <c r="W81" s="24"/>
+      <c r="X81" s="24"/>
+      <c r="Y81" s="24"/>
+      <c r="Z81" s="24"/>
+      <c r="AA81" s="25"/>
+      <c r="AB81" s="23"/>
+      <c r="AC81" s="24"/>
+      <c r="AD81" s="24"/>
+      <c r="AE81" s="24"/>
+      <c r="AF81" s="24"/>
+      <c r="AG81" s="24"/>
+      <c r="AH81" s="25"/>
       <c r="AI81" s="7"/>
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="13"/>
-      <c r="S82" s="13"/>
-      <c r="T82" s="14"/>
-      <c r="U82" s="12"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
-      <c r="X82" s="13"/>
-      <c r="Y82" s="13"/>
-      <c r="Z82" s="13"/>
-      <c r="AA82" s="14"/>
-      <c r="AB82" s="12"/>
-      <c r="AC82" s="13"/>
-      <c r="AD82" s="13"/>
-      <c r="AE82" s="13"/>
-      <c r="AF82" s="13"/>
-      <c r="AG82" s="13"/>
-      <c r="AH82" s="14"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="24"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="24"/>
+      <c r="S82" s="24"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="24"/>
+      <c r="W82" s="24"/>
+      <c r="X82" s="24"/>
+      <c r="Y82" s="24"/>
+      <c r="Z82" s="24"/>
+      <c r="AA82" s="25"/>
+      <c r="AB82" s="23"/>
+      <c r="AC82" s="24"/>
+      <c r="AD82" s="24"/>
+      <c r="AE82" s="24"/>
+      <c r="AF82" s="24"/>
+      <c r="AG82" s="24"/>
+      <c r="AH82" s="25"/>
       <c r="AI82" s="7"/>
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="14"/>
-      <c r="U83" s="12"/>
-      <c r="V83" s="13"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="13"/>
-      <c r="Y83" s="13"/>
-      <c r="Z83" s="13"/>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="12"/>
-      <c r="AC83" s="13"/>
-      <c r="AD83" s="13"/>
-      <c r="AE83" s="13"/>
-      <c r="AF83" s="13"/>
-      <c r="AG83" s="13"/>
-      <c r="AH83" s="14"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="24"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="24"/>
+      <c r="S83" s="24"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="23"/>
+      <c r="V83" s="24"/>
+      <c r="W83" s="24"/>
+      <c r="X83" s="24"/>
+      <c r="Y83" s="24"/>
+      <c r="Z83" s="24"/>
+      <c r="AA83" s="25"/>
+      <c r="AB83" s="23"/>
+      <c r="AC83" s="24"/>
+      <c r="AD83" s="24"/>
+      <c r="AE83" s="24"/>
+      <c r="AF83" s="24"/>
+      <c r="AG83" s="24"/>
+      <c r="AH83" s="25"/>
       <c r="AI83" s="7"/>
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="12"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
-      <c r="Y84" s="13"/>
-      <c r="Z84" s="13"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="12"/>
-      <c r="AC84" s="13"/>
-      <c r="AD84" s="13"/>
-      <c r="AE84" s="13"/>
-      <c r="AF84" s="13"/>
-      <c r="AG84" s="13"/>
-      <c r="AH84" s="14"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="24"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="24"/>
+      <c r="W84" s="24"/>
+      <c r="X84" s="24"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="24"/>
+      <c r="AA84" s="25"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="24"/>
+      <c r="AD84" s="24"/>
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="24"/>
+      <c r="AH84" s="25"/>
       <c r="AI84" s="7"/>
     </row>
     <row r="85" spans="1:35" ht="12" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="14"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="13"/>
-      <c r="X85" s="13"/>
-      <c r="Y85" s="13"/>
-      <c r="Z85" s="13"/>
-      <c r="AA85" s="14"/>
-      <c r="AB85" s="12"/>
-      <c r="AC85" s="13"/>
-      <c r="AD85" s="13"/>
-      <c r="AE85" s="13"/>
-      <c r="AF85" s="13"/>
-      <c r="AG85" s="13"/>
-      <c r="AH85" s="14"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="24"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="23"/>
+      <c r="V85" s="24"/>
+      <c r="W85" s="24"/>
+      <c r="X85" s="24"/>
+      <c r="Y85" s="24"/>
+      <c r="Z85" s="24"/>
+      <c r="AA85" s="25"/>
+      <c r="AB85" s="23"/>
+      <c r="AC85" s="24"/>
+      <c r="AD85" s="24"/>
+      <c r="AE85" s="24"/>
+      <c r="AF85" s="24"/>
+      <c r="AG85" s="24"/>
+      <c r="AH85" s="25"/>
       <c r="AI85" s="7"/>
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="13"/>
-      <c r="S86" s="13"/>
-      <c r="T86" s="14"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
-      <c r="X86" s="13"/>
-      <c r="Y86" s="13"/>
-      <c r="Z86" s="13"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="12"/>
-      <c r="AC86" s="13"/>
-      <c r="AD86" s="13"/>
-      <c r="AE86" s="13"/>
-      <c r="AF86" s="13"/>
-      <c r="AG86" s="13"/>
-      <c r="AH86" s="14"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="24"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="24"/>
+      <c r="S86" s="24"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="23"/>
+      <c r="V86" s="24"/>
+      <c r="W86" s="24"/>
+      <c r="X86" s="24"/>
+      <c r="Y86" s="24"/>
+      <c r="Z86" s="24"/>
+      <c r="AA86" s="25"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="24"/>
+      <c r="AD86" s="24"/>
+      <c r="AE86" s="24"/>
+      <c r="AF86" s="24"/>
+      <c r="AG86" s="24"/>
+      <c r="AH86" s="25"/>
       <c r="AI86" s="7"/>
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="13"/>
-      <c r="S87" s="13"/>
-      <c r="T87" s="14"/>
-      <c r="U87" s="12"/>
-      <c r="V87" s="13"/>
-      <c r="W87" s="13"/>
-      <c r="X87" s="13"/>
-      <c r="Y87" s="13"/>
-      <c r="Z87" s="13"/>
-      <c r="AA87" s="14"/>
-      <c r="AB87" s="12"/>
-      <c r="AC87" s="13"/>
-      <c r="AD87" s="13"/>
-      <c r="AE87" s="13"/>
-      <c r="AF87" s="13"/>
-      <c r="AG87" s="13"/>
-      <c r="AH87" s="14"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="24"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="24"/>
+      <c r="S87" s="24"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="23"/>
+      <c r="V87" s="24"/>
+      <c r="W87" s="24"/>
+      <c r="X87" s="24"/>
+      <c r="Y87" s="24"/>
+      <c r="Z87" s="24"/>
+      <c r="AA87" s="25"/>
+      <c r="AB87" s="23"/>
+      <c r="AC87" s="24"/>
+      <c r="AD87" s="24"/>
+      <c r="AE87" s="24"/>
+      <c r="AF87" s="24"/>
+      <c r="AG87" s="24"/>
+      <c r="AH87" s="25"/>
       <c r="AI87" s="7"/>
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-      <c r="R88" s="13"/>
-      <c r="S88" s="13"/>
-      <c r="T88" s="14"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="13"/>
-      <c r="X88" s="13"/>
-      <c r="Y88" s="13"/>
-      <c r="Z88" s="13"/>
-      <c r="AA88" s="14"/>
-      <c r="AB88" s="12"/>
-      <c r="AC88" s="13"/>
-      <c r="AD88" s="13"/>
-      <c r="AE88" s="13"/>
-      <c r="AF88" s="13"/>
-      <c r="AG88" s="13"/>
-      <c r="AH88" s="14"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="23"/>
+      <c r="V88" s="24"/>
+      <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="24"/>
+      <c r="AA88" s="25"/>
+      <c r="AB88" s="23"/>
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="24"/>
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="25"/>
       <c r="AI88" s="7"/>
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
-      <c r="R89" s="13"/>
-      <c r="S89" s="13"/>
-      <c r="T89" s="14"/>
-      <c r="U89" s="12"/>
-      <c r="V89" s="13"/>
-      <c r="W89" s="13"/>
-      <c r="X89" s="13"/>
-      <c r="Y89" s="13"/>
-      <c r="Z89" s="13"/>
-      <c r="AA89" s="14"/>
-      <c r="AB89" s="12"/>
-      <c r="AC89" s="13"/>
-      <c r="AD89" s="13"/>
-      <c r="AE89" s="13"/>
-      <c r="AF89" s="13"/>
-      <c r="AG89" s="13"/>
-      <c r="AH89" s="14"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="24"/>
+      <c r="S89" s="24"/>
+      <c r="T89" s="25"/>
+      <c r="U89" s="23"/>
+      <c r="V89" s="24"/>
+      <c r="W89" s="24"/>
+      <c r="X89" s="24"/>
+      <c r="Y89" s="24"/>
+      <c r="Z89" s="24"/>
+      <c r="AA89" s="25"/>
+      <c r="AB89" s="23"/>
+      <c r="AC89" s="24"/>
+      <c r="AD89" s="24"/>
+      <c r="AE89" s="24"/>
+      <c r="AF89" s="24"/>
+      <c r="AG89" s="24"/>
+      <c r="AH89" s="25"/>
       <c r="AI89" s="7"/>
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="13"/>
-      <c r="S90" s="13"/>
-      <c r="T90" s="14"/>
-      <c r="U90" s="12"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="13"/>
-      <c r="X90" s="13"/>
-      <c r="Y90" s="13"/>
-      <c r="Z90" s="13"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="12"/>
-      <c r="AC90" s="13"/>
-      <c r="AD90" s="13"/>
-      <c r="AE90" s="13"/>
-      <c r="AF90" s="13"/>
-      <c r="AG90" s="13"/>
-      <c r="AH90" s="14"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="24"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+      <c r="S90" s="24"/>
+      <c r="T90" s="25"/>
+      <c r="U90" s="23"/>
+      <c r="V90" s="24"/>
+      <c r="W90" s="24"/>
+      <c r="X90" s="24"/>
+      <c r="Y90" s="24"/>
+      <c r="Z90" s="24"/>
+      <c r="AA90" s="25"/>
+      <c r="AB90" s="23"/>
+      <c r="AC90" s="24"/>
+      <c r="AD90" s="24"/>
+      <c r="AE90" s="24"/>
+      <c r="AF90" s="24"/>
+      <c r="AG90" s="24"/>
+      <c r="AH90" s="25"/>
       <c r="AI90" s="7"/>
     </row>
     <row r="91" spans="1:35" ht="12" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="12"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
-      <c r="X91" s="13"/>
-      <c r="Y91" s="13"/>
-      <c r="Z91" s="13"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="12"/>
-      <c r="AC91" s="13"/>
-      <c r="AD91" s="13"/>
-      <c r="AE91" s="13"/>
-      <c r="AF91" s="13"/>
-      <c r="AG91" s="13"/>
-      <c r="AH91" s="14"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="24"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="24"/>
+      <c r="S91" s="24"/>
+      <c r="T91" s="25"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="24"/>
+      <c r="W91" s="24"/>
+      <c r="X91" s="24"/>
+      <c r="Y91" s="24"/>
+      <c r="Z91" s="24"/>
+      <c r="AA91" s="25"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="24"/>
+      <c r="AD91" s="24"/>
+      <c r="AE91" s="24"/>
+      <c r="AF91" s="24"/>
+      <c r="AG91" s="24"/>
+      <c r="AH91" s="25"/>
       <c r="AI91" s="7"/>
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="13"/>
-      <c r="S92" s="13"/>
-      <c r="T92" s="14"/>
-      <c r="U92" s="12"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
-      <c r="X92" s="13"/>
-      <c r="Y92" s="13"/>
-      <c r="Z92" s="13"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="12"/>
-      <c r="AC92" s="13"/>
-      <c r="AD92" s="13"/>
-      <c r="AE92" s="13"/>
-      <c r="AF92" s="13"/>
-      <c r="AG92" s="13"/>
-      <c r="AH92" s="14"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="24"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="24"/>
+      <c r="S92" s="24"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="23"/>
+      <c r="V92" s="24"/>
+      <c r="W92" s="24"/>
+      <c r="X92" s="24"/>
+      <c r="Y92" s="24"/>
+      <c r="Z92" s="24"/>
+      <c r="AA92" s="25"/>
+      <c r="AB92" s="23"/>
+      <c r="AC92" s="24"/>
+      <c r="AD92" s="24"/>
+      <c r="AE92" s="24"/>
+      <c r="AF92" s="24"/>
+      <c r="AG92" s="24"/>
+      <c r="AH92" s="25"/>
       <c r="AI92" s="7"/>
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="13"/>
-      <c r="R93" s="13"/>
-      <c r="S93" s="13"/>
-      <c r="T93" s="14"/>
-      <c r="U93" s="12"/>
-      <c r="V93" s="13"/>
-      <c r="W93" s="13"/>
-      <c r="X93" s="13"/>
-      <c r="Y93" s="13"/>
-      <c r="Z93" s="13"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="12"/>
-      <c r="AC93" s="13"/>
-      <c r="AD93" s="13"/>
-      <c r="AE93" s="13"/>
-      <c r="AF93" s="13"/>
-      <c r="AG93" s="13"/>
-      <c r="AH93" s="14"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="24"/>
+      <c r="P93" s="24"/>
+      <c r="Q93" s="24"/>
+      <c r="R93" s="24"/>
+      <c r="S93" s="24"/>
+      <c r="T93" s="25"/>
+      <c r="U93" s="23"/>
+      <c r="V93" s="24"/>
+      <c r="W93" s="24"/>
+      <c r="X93" s="24"/>
+      <c r="Y93" s="24"/>
+      <c r="Z93" s="24"/>
+      <c r="AA93" s="25"/>
+      <c r="AB93" s="23"/>
+      <c r="AC93" s="24"/>
+      <c r="AD93" s="24"/>
+      <c r="AE93" s="24"/>
+      <c r="AF93" s="24"/>
+      <c r="AG93" s="24"/>
+      <c r="AH93" s="25"/>
       <c r="AI93" s="7"/>
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="13"/>
-      <c r="S94" s="13"/>
-      <c r="T94" s="14"/>
-      <c r="U94" s="12"/>
-      <c r="V94" s="13"/>
-      <c r="W94" s="13"/>
-      <c r="X94" s="13"/>
-      <c r="Y94" s="13"/>
-      <c r="Z94" s="13"/>
-      <c r="AA94" s="14"/>
-      <c r="AB94" s="12"/>
-      <c r="AC94" s="13"/>
-      <c r="AD94" s="13"/>
-      <c r="AE94" s="13"/>
-      <c r="AF94" s="13"/>
-      <c r="AG94" s="13"/>
-      <c r="AH94" s="14"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="24"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="24"/>
+      <c r="S94" s="24"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="23"/>
+      <c r="V94" s="24"/>
+      <c r="W94" s="24"/>
+      <c r="X94" s="24"/>
+      <c r="Y94" s="24"/>
+      <c r="Z94" s="24"/>
+      <c r="AA94" s="25"/>
+      <c r="AB94" s="23"/>
+      <c r="AC94" s="24"/>
+      <c r="AD94" s="24"/>
+      <c r="AE94" s="24"/>
+      <c r="AF94" s="24"/>
+      <c r="AG94" s="24"/>
+      <c r="AH94" s="25"/>
       <c r="AI94" s="7"/>
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="13"/>
-      <c r="S95" s="13"/>
-      <c r="T95" s="14"/>
-      <c r="U95" s="12"/>
-      <c r="V95" s="13"/>
-      <c r="W95" s="13"/>
-      <c r="X95" s="13"/>
-      <c r="Y95" s="13"/>
-      <c r="Z95" s="13"/>
-      <c r="AA95" s="14"/>
-      <c r="AB95" s="12"/>
-      <c r="AC95" s="13"/>
-      <c r="AD95" s="13"/>
-      <c r="AE95" s="13"/>
-      <c r="AF95" s="13"/>
-      <c r="AG95" s="13"/>
-      <c r="AH95" s="14"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="24"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="23"/>
+      <c r="V95" s="24"/>
+      <c r="W95" s="24"/>
+      <c r="X95" s="24"/>
+      <c r="Y95" s="24"/>
+      <c r="Z95" s="24"/>
+      <c r="AA95" s="25"/>
+      <c r="AB95" s="23"/>
+      <c r="AC95" s="24"/>
+      <c r="AD95" s="24"/>
+      <c r="AE95" s="24"/>
+      <c r="AF95" s="24"/>
+      <c r="AG95" s="24"/>
+      <c r="AH95" s="25"/>
       <c r="AI95" s="7"/>
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="12"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="12"/>
-      <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="13"/>
-      <c r="S96" s="13"/>
-      <c r="T96" s="14"/>
-      <c r="U96" s="12"/>
-      <c r="V96" s="13"/>
-      <c r="W96" s="13"/>
-      <c r="X96" s="13"/>
-      <c r="Y96" s="13"/>
-      <c r="Z96" s="13"/>
-      <c r="AA96" s="14"/>
-      <c r="AB96" s="12"/>
-      <c r="AC96" s="13"/>
-      <c r="AD96" s="13"/>
-      <c r="AE96" s="13"/>
-      <c r="AF96" s="13"/>
-      <c r="AG96" s="13"/>
-      <c r="AH96" s="14"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="24"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="24"/>
+      <c r="S96" s="24"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="23"/>
+      <c r="V96" s="24"/>
+      <c r="W96" s="24"/>
+      <c r="X96" s="24"/>
+      <c r="Y96" s="24"/>
+      <c r="Z96" s="24"/>
+      <c r="AA96" s="25"/>
+      <c r="AB96" s="23"/>
+      <c r="AC96" s="24"/>
+      <c r="AD96" s="24"/>
+      <c r="AE96" s="24"/>
+      <c r="AF96" s="24"/>
+      <c r="AG96" s="24"/>
+      <c r="AH96" s="25"/>
       <c r="AI96" s="7"/>
     </row>
     <row r="97" spans="1:35" ht="12" customHeight="1">
@@ -7004,65 +7004,556 @@
       <c r="AI162" s="7"/>
     </row>
     <row r="163" spans="1:35" ht="12" customHeight="1">
-      <c r="A163" s="27"/>
-      <c r="B163" s="28"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="29"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="29"/>
-      <c r="L163" s="29"/>
-      <c r="M163" s="29"/>
-      <c r="N163" s="29"/>
-      <c r="O163" s="29"/>
-      <c r="P163" s="29"/>
-      <c r="Q163" s="29"/>
-      <c r="R163" s="29"/>
-      <c r="S163" s="29"/>
-      <c r="T163" s="29"/>
-      <c r="U163" s="29"/>
-      <c r="V163" s="29"/>
-      <c r="W163" s="29"/>
-      <c r="X163" s="29"/>
-      <c r="Y163" s="29"/>
-      <c r="Z163" s="29"/>
-      <c r="AA163" s="29"/>
-      <c r="AB163" s="29"/>
-      <c r="AC163" s="29"/>
-      <c r="AD163" s="29"/>
-      <c r="AE163" s="29"/>
-      <c r="AF163" s="29"/>
-      <c r="AG163" s="29"/>
-      <c r="AH163" s="29"/>
-      <c r="AI163" s="30"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="15"/>
+      <c r="Q163" s="15"/>
+      <c r="R163" s="15"/>
+      <c r="S163" s="15"/>
+      <c r="T163" s="15"/>
+      <c r="U163" s="15"/>
+      <c r="V163" s="15"/>
+      <c r="W163" s="15"/>
+      <c r="X163" s="15"/>
+      <c r="Y163" s="15"/>
+      <c r="Z163" s="15"/>
+      <c r="AA163" s="15"/>
+      <c r="AB163" s="15"/>
+      <c r="AC163" s="15"/>
+      <c r="AD163" s="15"/>
+      <c r="AE163" s="15"/>
+      <c r="AF163" s="15"/>
+      <c r="AG163" s="15"/>
+      <c r="AH163" s="15"/>
+      <c r="AI163" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="560">
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="J3:R4"/>
-    <mergeCell ref="S3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:T11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:T12"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R2"/>
-    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:T94"/>
+    <mergeCell ref="U94:AA94"/>
+    <mergeCell ref="AB94:AH94"/>
+    <mergeCell ref="U89:AA89"/>
+    <mergeCell ref="AB89:AH89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:T90"/>
+    <mergeCell ref="U90:AA90"/>
+    <mergeCell ref="AB90:AH90"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="N93:T93"/>
+    <mergeCell ref="U93:AA93"/>
+    <mergeCell ref="AB93:AH93"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:T85"/>
+    <mergeCell ref="U85:AA85"/>
+    <mergeCell ref="AB85:AH85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:T86"/>
+    <mergeCell ref="U86:AA86"/>
+    <mergeCell ref="AB86:AH86"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:T77"/>
+    <mergeCell ref="U77:AA77"/>
+    <mergeCell ref="AB77:AH77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:T78"/>
+    <mergeCell ref="U78:AA78"/>
+    <mergeCell ref="AB78:AH78"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:T70"/>
+    <mergeCell ref="U70:AA70"/>
+    <mergeCell ref="AB70:AH70"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:T73"/>
+    <mergeCell ref="U73:AA73"/>
+    <mergeCell ref="AB73:AH73"/>
+    <mergeCell ref="U65:AA65"/>
+    <mergeCell ref="AB65:AH65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:T66"/>
+    <mergeCell ref="U66:AA66"/>
+    <mergeCell ref="AB66:AH66"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:T69"/>
+    <mergeCell ref="U69:AA69"/>
+    <mergeCell ref="AB69:AH69"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:T61"/>
+    <mergeCell ref="U61:AA61"/>
+    <mergeCell ref="AB61:AH61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="N62:T62"/>
+    <mergeCell ref="U62:AA62"/>
+    <mergeCell ref="AB62:AH62"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:T53"/>
+    <mergeCell ref="U53:AA53"/>
+    <mergeCell ref="AB53:AH53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:T54"/>
+    <mergeCell ref="U54:AA54"/>
+    <mergeCell ref="AB54:AH54"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:T46"/>
+    <mergeCell ref="U46:AA46"/>
+    <mergeCell ref="AB46:AH46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:T49"/>
+    <mergeCell ref="U49:AA49"/>
+    <mergeCell ref="AB49:AH49"/>
+    <mergeCell ref="U41:AA41"/>
+    <mergeCell ref="AB41:AH41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:T42"/>
+    <mergeCell ref="U42:AA42"/>
+    <mergeCell ref="AB42:AH42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:T45"/>
+    <mergeCell ref="U45:AA45"/>
+    <mergeCell ref="AB45:AH45"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="U37:AA37"/>
+    <mergeCell ref="AB37:AH37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:T38"/>
+    <mergeCell ref="U38:AA38"/>
+    <mergeCell ref="AB38:AH38"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="AB29:AH29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="AB17:AH17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="AB21:AH21"/>
+    <mergeCell ref="AB6:AH6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="AB7:AH7"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="AB13:AH13"/>
+    <mergeCell ref="AB8:AH8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="U96:AA96"/>
+    <mergeCell ref="AB96:AH96"/>
+    <mergeCell ref="U95:AA95"/>
+    <mergeCell ref="AB95:AH95"/>
+    <mergeCell ref="U91:AA91"/>
+    <mergeCell ref="AB91:AH91"/>
+    <mergeCell ref="U92:AA92"/>
+    <mergeCell ref="AB92:AH92"/>
+    <mergeCell ref="U87:AA87"/>
+    <mergeCell ref="AB87:AH87"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="U88:AA88"/>
+    <mergeCell ref="AB88:AH88"/>
+    <mergeCell ref="U84:AA84"/>
+    <mergeCell ref="AB84:AH84"/>
+    <mergeCell ref="U83:AA83"/>
+    <mergeCell ref="AB83:AH83"/>
+    <mergeCell ref="U79:AA79"/>
+    <mergeCell ref="AB79:AH79"/>
+    <mergeCell ref="U80:AA80"/>
+    <mergeCell ref="AB80:AH80"/>
+    <mergeCell ref="U81:AA81"/>
+    <mergeCell ref="AB81:AH81"/>
+    <mergeCell ref="U82:AA82"/>
+    <mergeCell ref="AB82:AH82"/>
+    <mergeCell ref="U75:AA75"/>
+    <mergeCell ref="AB75:AH75"/>
+    <mergeCell ref="U76:AA76"/>
+    <mergeCell ref="AB76:AH76"/>
+    <mergeCell ref="U72:AA72"/>
+    <mergeCell ref="AB72:AH72"/>
+    <mergeCell ref="U71:AA71"/>
+    <mergeCell ref="AB71:AH71"/>
+    <mergeCell ref="U67:AA67"/>
+    <mergeCell ref="AB67:AH67"/>
+    <mergeCell ref="U68:AA68"/>
+    <mergeCell ref="AB68:AH68"/>
+    <mergeCell ref="U74:AA74"/>
+    <mergeCell ref="AB74:AH74"/>
+    <mergeCell ref="U63:AA63"/>
+    <mergeCell ref="AB63:AH63"/>
+    <mergeCell ref="U64:AA64"/>
+    <mergeCell ref="AB64:AH64"/>
+    <mergeCell ref="U60:AA60"/>
+    <mergeCell ref="AB60:AH60"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="AB59:AH59"/>
+    <mergeCell ref="U55:AA55"/>
+    <mergeCell ref="AB55:AH55"/>
+    <mergeCell ref="U56:AA56"/>
+    <mergeCell ref="AB56:AH56"/>
+    <mergeCell ref="U57:AA57"/>
+    <mergeCell ref="AB57:AH57"/>
+    <mergeCell ref="U58:AA58"/>
+    <mergeCell ref="AB58:AH58"/>
+    <mergeCell ref="U51:AA51"/>
+    <mergeCell ref="AB51:AH51"/>
+    <mergeCell ref="U52:AA52"/>
+    <mergeCell ref="AB52:AH52"/>
+    <mergeCell ref="U48:AA48"/>
+    <mergeCell ref="AB48:AH48"/>
+    <mergeCell ref="U47:AA47"/>
+    <mergeCell ref="AB47:AH47"/>
+    <mergeCell ref="U43:AA43"/>
+    <mergeCell ref="AB43:AH43"/>
+    <mergeCell ref="U44:AA44"/>
+    <mergeCell ref="AB44:AH44"/>
+    <mergeCell ref="U50:AA50"/>
+    <mergeCell ref="AB50:AH50"/>
+    <mergeCell ref="U39:AA39"/>
+    <mergeCell ref="AB39:AH39"/>
+    <mergeCell ref="U40:AA40"/>
+    <mergeCell ref="AB40:AH40"/>
+    <mergeCell ref="U36:AA36"/>
+    <mergeCell ref="AB36:AH36"/>
+    <mergeCell ref="U35:AA35"/>
+    <mergeCell ref="AB35:AH35"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AB31:AH31"/>
+    <mergeCell ref="U32:AA32"/>
+    <mergeCell ref="AB32:AH32"/>
+    <mergeCell ref="U33:AA33"/>
+    <mergeCell ref="AB33:AH33"/>
+    <mergeCell ref="U34:AA34"/>
+    <mergeCell ref="AB34:AH34"/>
+    <mergeCell ref="U27:AA27"/>
+    <mergeCell ref="AB27:AH27"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="AB28:AH28"/>
+    <mergeCell ref="U24:AA24"/>
+    <mergeCell ref="AB24:AH24"/>
+    <mergeCell ref="U23:AA23"/>
+    <mergeCell ref="AB23:AH23"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="AB19:AH19"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="AB20:AH20"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="AB22:AH22"/>
+    <mergeCell ref="U25:AA25"/>
+    <mergeCell ref="AB25:AH25"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="AB26:AH26"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="AB9:AH9"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="AB10:AH10"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="N95:T95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="N96:T96"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:T9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:T10"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:T22"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:T25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:T91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:T92"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="N87:T87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="N88:T88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:T89"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:T83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:T84"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="N79:T79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:T80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:T81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:T82"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:T75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:T76"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:T71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:T72"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:T74"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:T67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="N68:T68"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:T63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:T64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:T65"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:T59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:T60"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:T55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:T56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:T57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:T58"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:T51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:T52"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:T47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:T48"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:T50"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:T43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:T44"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:T39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:T40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:T41"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:T31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:T27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:T23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:T24"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:T26"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="K19:M19"/>
@@ -7079,529 +7570,38 @@
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="N16:T16"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:T27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:T23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:T24"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:T32"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:T43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:T44"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:T39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:T40"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:T51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:T52"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:T47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:T48"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:T59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:T60"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:T55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:T56"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="N67:T67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="N68:T68"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:T63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:T64"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:T75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:T76"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:T71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:T72"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:T83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:T84"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="N79:T79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:T80"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:T91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="G92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:T92"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="N87:T87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="N88:T88"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="N95:T95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="N96:T96"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:T9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:T10"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="AB15:AH15"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="AB9:AH9"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="AB10:AH10"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="AB11:AH11"/>
-    <mergeCell ref="U27:AA27"/>
-    <mergeCell ref="AB27:AH27"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="AB28:AH28"/>
-    <mergeCell ref="U24:AA24"/>
-    <mergeCell ref="AB24:AH24"/>
-    <mergeCell ref="U23:AA23"/>
-    <mergeCell ref="AB23:AH23"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="AB19:AH19"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="AB20:AH20"/>
-    <mergeCell ref="U39:AA39"/>
-    <mergeCell ref="AB39:AH39"/>
-    <mergeCell ref="U40:AA40"/>
-    <mergeCell ref="AB40:AH40"/>
-    <mergeCell ref="U36:AA36"/>
-    <mergeCell ref="AB36:AH36"/>
-    <mergeCell ref="U35:AA35"/>
-    <mergeCell ref="AB35:AH35"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AB31:AH31"/>
-    <mergeCell ref="U32:AA32"/>
-    <mergeCell ref="AB32:AH32"/>
-    <mergeCell ref="U51:AA51"/>
-    <mergeCell ref="AB51:AH51"/>
-    <mergeCell ref="U52:AA52"/>
-    <mergeCell ref="AB52:AH52"/>
-    <mergeCell ref="U48:AA48"/>
-    <mergeCell ref="AB48:AH48"/>
-    <mergeCell ref="U47:AA47"/>
-    <mergeCell ref="AB47:AH47"/>
-    <mergeCell ref="U43:AA43"/>
-    <mergeCell ref="AB43:AH43"/>
-    <mergeCell ref="U44:AA44"/>
-    <mergeCell ref="AB44:AH44"/>
-    <mergeCell ref="U63:AA63"/>
-    <mergeCell ref="AB63:AH63"/>
-    <mergeCell ref="U64:AA64"/>
-    <mergeCell ref="AB64:AH64"/>
-    <mergeCell ref="U60:AA60"/>
-    <mergeCell ref="AB60:AH60"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="AB59:AH59"/>
-    <mergeCell ref="U55:AA55"/>
-    <mergeCell ref="AB55:AH55"/>
-    <mergeCell ref="U56:AA56"/>
-    <mergeCell ref="AB56:AH56"/>
-    <mergeCell ref="U75:AA75"/>
-    <mergeCell ref="AB75:AH75"/>
-    <mergeCell ref="U76:AA76"/>
-    <mergeCell ref="AB76:AH76"/>
-    <mergeCell ref="U72:AA72"/>
-    <mergeCell ref="AB72:AH72"/>
-    <mergeCell ref="U71:AA71"/>
-    <mergeCell ref="AB71:AH71"/>
-    <mergeCell ref="U67:AA67"/>
-    <mergeCell ref="AB67:AH67"/>
-    <mergeCell ref="U68:AA68"/>
-    <mergeCell ref="AB68:AH68"/>
-    <mergeCell ref="U88:AA88"/>
-    <mergeCell ref="AB88:AH88"/>
-    <mergeCell ref="U84:AA84"/>
-    <mergeCell ref="AB84:AH84"/>
-    <mergeCell ref="U83:AA83"/>
-    <mergeCell ref="AB83:AH83"/>
-    <mergeCell ref="U79:AA79"/>
-    <mergeCell ref="AB79:AH79"/>
-    <mergeCell ref="U80:AA80"/>
-    <mergeCell ref="AB80:AH80"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:T11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:T12"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:R2"/>
+    <mergeCell ref="S1:AA2"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="N8:T8"/>
     <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="AB8:AH8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="U96:AA96"/>
-    <mergeCell ref="AB96:AH96"/>
-    <mergeCell ref="U95:AA95"/>
-    <mergeCell ref="AB95:AH95"/>
-    <mergeCell ref="U91:AA91"/>
-    <mergeCell ref="AB91:AH91"/>
-    <mergeCell ref="U92:AA92"/>
-    <mergeCell ref="AB92:AH92"/>
-    <mergeCell ref="U87:AA87"/>
-    <mergeCell ref="AB87:AH87"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:T6"/>
     <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="AB6:AH6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="AB7:AH7"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="AB13:AH13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="AB17:AH17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:T18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="AB21:AH21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:T22"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="AB22:AH22"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:T25"/>
-    <mergeCell ref="U25:AA25"/>
-    <mergeCell ref="AB25:AH25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:T26"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="AB26:AH26"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="AB29:AH29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="U33:AA33"/>
-    <mergeCell ref="AB33:AH33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="U34:AA34"/>
-    <mergeCell ref="AB34:AH34"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="U37:AA37"/>
-    <mergeCell ref="AB37:AH37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:T38"/>
-    <mergeCell ref="U38:AA38"/>
-    <mergeCell ref="AB38:AH38"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:T41"/>
-    <mergeCell ref="U41:AA41"/>
-    <mergeCell ref="AB41:AH41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:T42"/>
-    <mergeCell ref="U42:AA42"/>
-    <mergeCell ref="AB42:AH42"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:T45"/>
-    <mergeCell ref="U45:AA45"/>
-    <mergeCell ref="AB45:AH45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:T46"/>
-    <mergeCell ref="U46:AA46"/>
-    <mergeCell ref="AB46:AH46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:T49"/>
-    <mergeCell ref="U49:AA49"/>
-    <mergeCell ref="AB49:AH49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:T50"/>
-    <mergeCell ref="U50:AA50"/>
-    <mergeCell ref="AB50:AH50"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:T53"/>
-    <mergeCell ref="U53:AA53"/>
-    <mergeCell ref="AB53:AH53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:T54"/>
-    <mergeCell ref="U54:AA54"/>
-    <mergeCell ref="AB54:AH54"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:T57"/>
-    <mergeCell ref="U57:AA57"/>
-    <mergeCell ref="AB57:AH57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:T58"/>
-    <mergeCell ref="U58:AA58"/>
-    <mergeCell ref="AB58:AH58"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:T61"/>
-    <mergeCell ref="U61:AA61"/>
-    <mergeCell ref="AB61:AH61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="N62:T62"/>
-    <mergeCell ref="U62:AA62"/>
-    <mergeCell ref="AB62:AH62"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:T65"/>
-    <mergeCell ref="U65:AA65"/>
-    <mergeCell ref="AB65:AH65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:T66"/>
-    <mergeCell ref="U66:AA66"/>
-    <mergeCell ref="AB66:AH66"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:T69"/>
-    <mergeCell ref="U69:AA69"/>
-    <mergeCell ref="AB69:AH69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:T70"/>
-    <mergeCell ref="U70:AA70"/>
-    <mergeCell ref="AB70:AH70"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:T73"/>
-    <mergeCell ref="U73:AA73"/>
-    <mergeCell ref="AB73:AH73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:T74"/>
-    <mergeCell ref="U74:AA74"/>
-    <mergeCell ref="AB74:AH74"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:T77"/>
-    <mergeCell ref="U77:AA77"/>
-    <mergeCell ref="AB77:AH77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:T78"/>
-    <mergeCell ref="U78:AA78"/>
-    <mergeCell ref="AB78:AH78"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:T81"/>
-    <mergeCell ref="U81:AA81"/>
-    <mergeCell ref="AB81:AH81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:T82"/>
-    <mergeCell ref="U82:AA82"/>
-    <mergeCell ref="AB82:AH82"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:T85"/>
-    <mergeCell ref="U85:AA85"/>
-    <mergeCell ref="AB85:AH85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:T86"/>
-    <mergeCell ref="U86:AA86"/>
-    <mergeCell ref="AB86:AH86"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:T89"/>
-    <mergeCell ref="U89:AA89"/>
-    <mergeCell ref="AB89:AH89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:J90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:T90"/>
-    <mergeCell ref="U90:AA90"/>
-    <mergeCell ref="AB90:AH90"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="N93:T93"/>
-    <mergeCell ref="U93:AA93"/>
-    <mergeCell ref="AB93:AH93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:T94"/>
-    <mergeCell ref="U94:AA94"/>
-    <mergeCell ref="AB94:AH94"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="S3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15833333333333333" right="0.70000000000000007" top="0.3034722222222222" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>

--- a/template/Validation.xlsx
+++ b/template/Validation.xlsx
@@ -504,6 +504,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,30 +544,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,7 +961,7 @@
   <dimension ref="A1:AI163"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:F27"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -976,170 +976,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="23" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="26" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="26" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="17" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17" t="s">
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
     </row>
     <row r="2" spans="1:35" ht="23" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="17" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17" t="s">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
     </row>
     <row r="3" spans="1:35" ht="23" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="18" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="18" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="22"/>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
     </row>
     <row r="4" spans="1:35" ht="23" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="A5" s="2"/>
@@ -1186,3379 +1186,3379 @@
       <c r="C6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30" t="s">
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30" t="s">
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30" t="s">
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
       <c r="AI6" s="7"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="25"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="19"/>
       <c r="AI7" s="7"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="25"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="19"/>
       <c r="AI8" s="7"/>
     </row>
     <row r="9" spans="1:35" ht="12" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="25"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="19"/>
       <c r="AI9" s="7"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="25"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="19"/>
       <c r="AI10" s="7"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="25"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="19"/>
       <c r="AI11" s="7"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="25"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="19"/>
       <c r="AI12" s="7"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="25"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="19"/>
       <c r="AI13" s="7"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="24"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="25"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="19"/>
       <c r="AI14" s="7"/>
     </row>
     <row r="15" spans="1:35" ht="12" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="25"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="19"/>
       <c r="AI15" s="7"/>
     </row>
     <row r="16" spans="1:35" ht="12" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="25"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="25"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="19"/>
       <c r="AI17" s="7"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="25"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="19"/>
       <c r="AI18" s="7"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="25"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="19"/>
       <c r="AI19" s="7"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="25"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="19"/>
       <c r="AI20" s="7"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="25"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="25"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="18"/>
+      <c r="AH21" s="19"/>
       <c r="AI21" s="7"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="25"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="19"/>
       <c r="AI22" s="7"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="25"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="19"/>
       <c r="AI23" s="7"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="25"/>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="25"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="19"/>
       <c r="AI24" s="7"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="25"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="19"/>
       <c r="AI25" s="7"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="25"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="19"/>
       <c r="AI26" s="7"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="23"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="25"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="19"/>
       <c r="AI27" s="7"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="24"/>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="25"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="19"/>
       <c r="AI28" s="7"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="24"/>
-      <c r="AE29" s="24"/>
-      <c r="AF29" s="24"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="25"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="19"/>
       <c r="AI29" s="7"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="24"/>
-      <c r="AE30" s="24"/>
-      <c r="AF30" s="24"/>
-      <c r="AG30" s="24"/>
-      <c r="AH30" s="25"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="19"/>
       <c r="AI30" s="7"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="25"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="25"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
-      <c r="AF31" s="24"/>
-      <c r="AG31" s="24"/>
-      <c r="AH31" s="25"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="19"/>
       <c r="AI31" s="7"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="25"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="25"/>
-      <c r="AB32" s="23"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
-      <c r="AF32" s="24"/>
-      <c r="AG32" s="24"/>
-      <c r="AH32" s="25"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="18"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
+      <c r="AH32" s="19"/>
       <c r="AI32" s="7"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="25"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="25"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
-      <c r="AF33" s="24"/>
-      <c r="AG33" s="24"/>
-      <c r="AH33" s="25"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="19"/>
       <c r="AI33" s="7"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="25"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="23"/>
-      <c r="AC34" s="24"/>
-      <c r="AD34" s="24"/>
-      <c r="AE34" s="24"/>
-      <c r="AF34" s="24"/>
-      <c r="AG34" s="24"/>
-      <c r="AH34" s="25"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="19"/>
       <c r="AI34" s="7"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="25"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="24"/>
-      <c r="AD35" s="24"/>
-      <c r="AE35" s="24"/>
-      <c r="AF35" s="24"/>
-      <c r="AG35" s="24"/>
-      <c r="AH35" s="25"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="19"/>
       <c r="AI35" s="7"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="25"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="24"/>
-      <c r="AD36" s="24"/>
-      <c r="AE36" s="24"/>
-      <c r="AF36" s="24"/>
-      <c r="AG36" s="24"/>
-      <c r="AH36" s="25"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="19"/>
       <c r="AI36" s="7"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="24"/>
-      <c r="AE37" s="24"/>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="25"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="19"/>
       <c r="AI37" s="7"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="25"/>
-      <c r="AB38" s="23"/>
-      <c r="AC38" s="24"/>
-      <c r="AD38" s="24"/>
-      <c r="AE38" s="24"/>
-      <c r="AF38" s="24"/>
-      <c r="AG38" s="24"/>
-      <c r="AH38" s="25"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="18"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="18"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="18"/>
+      <c r="AG38" s="18"/>
+      <c r="AH38" s="19"/>
       <c r="AI38" s="7"/>
     </row>
     <row r="39" spans="1:35" ht="12" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="25"/>
-      <c r="AB39" s="23"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="25"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="18"/>
+      <c r="AD39" s="18"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="18"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="19"/>
       <c r="AI39" s="7"/>
     </row>
     <row r="40" spans="1:35" ht="12" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="25"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="25"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="24"/>
-      <c r="AD40" s="24"/>
-      <c r="AE40" s="24"/>
-      <c r="AF40" s="24"/>
-      <c r="AG40" s="24"/>
-      <c r="AH40" s="25"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="18"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="19"/>
       <c r="AI40" s="7"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="23"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="23"/>
-      <c r="AC41" s="24"/>
-      <c r="AD41" s="24"/>
-      <c r="AE41" s="24"/>
-      <c r="AF41" s="24"/>
-      <c r="AG41" s="24"/>
-      <c r="AH41" s="25"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+      <c r="X41" s="18"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="19"/>
       <c r="AI41" s="7"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="24"/>
-      <c r="S42" s="24"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="24"/>
-      <c r="W42" s="24"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="24"/>
-      <c r="AH42" s="25"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="18"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="19"/>
       <c r="AI42" s="7"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="23"/>
-      <c r="AC43" s="24"/>
-      <c r="AD43" s="24"/>
-      <c r="AE43" s="24"/>
-      <c r="AF43" s="24"/>
-      <c r="AG43" s="24"/>
-      <c r="AH43" s="25"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="18"/>
+      <c r="AD43" s="18"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="19"/>
       <c r="AI43" s="7"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="24"/>
-      <c r="AD44" s="24"/>
-      <c r="AE44" s="24"/>
-      <c r="AF44" s="24"/>
-      <c r="AG44" s="24"/>
-      <c r="AH44" s="25"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="18"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="19"/>
       <c r="AI44" s="7"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="23"/>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="24"/>
-      <c r="AF45" s="24"/>
-      <c r="AG45" s="24"/>
-      <c r="AH45" s="25"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="18"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
+      <c r="AE45" s="18"/>
+      <c r="AF45" s="18"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="19"/>
       <c r="AI45" s="7"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="24"/>
-      <c r="AF46" s="24"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="25"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="18"/>
+      <c r="Y46" s="18"/>
+      <c r="Z46" s="18"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
+      <c r="AE46" s="18"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="19"/>
       <c r="AI46" s="7"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="25"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="19"/>
       <c r="AI47" s="7"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="24"/>
-      <c r="AH48" s="25"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="19"/>
       <c r="AI48" s="7"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="24"/>
-      <c r="AH49" s="25"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="19"/>
       <c r="AI49" s="7"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="25"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="25"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="24"/>
-      <c r="AH50" s="25"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="19"/>
       <c r="AI50" s="7"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="25"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="19"/>
       <c r="AI51" s="7"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="24"/>
-      <c r="AA52" s="25"/>
-      <c r="AB52" s="23"/>
-      <c r="AC52" s="24"/>
-      <c r="AD52" s="24"/>
-      <c r="AE52" s="24"/>
-      <c r="AF52" s="24"/>
-      <c r="AG52" s="24"/>
-      <c r="AH52" s="25"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="18"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="17"/>
+      <c r="AC52" s="18"/>
+      <c r="AD52" s="18"/>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="18"/>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="19"/>
       <c r="AI52" s="7"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="24"/>
-      <c r="AA53" s="25"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="24"/>
-      <c r="AD53" s="24"/>
-      <c r="AE53" s="24"/>
-      <c r="AF53" s="24"/>
-      <c r="AG53" s="24"/>
-      <c r="AH53" s="25"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="19"/>
       <c r="AI53" s="7"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="25"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="24"/>
-      <c r="AD54" s="24"/>
-      <c r="AE54" s="24"/>
-      <c r="AF54" s="24"/>
-      <c r="AG54" s="24"/>
-      <c r="AH54" s="25"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="19"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="18"/>
+      <c r="AH54" s="19"/>
       <c r="AI54" s="7"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="24"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="24"/>
-      <c r="AA55" s="25"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="24"/>
-      <c r="AD55" s="24"/>
-      <c r="AE55" s="24"/>
-      <c r="AF55" s="24"/>
-      <c r="AG55" s="24"/>
-      <c r="AH55" s="25"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="17"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="19"/>
       <c r="AI55" s="7"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
       <c r="A56" s="6"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
-      <c r="AA56" s="25"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="24"/>
-      <c r="AE56" s="24"/>
-      <c r="AF56" s="24"/>
-      <c r="AG56" s="24"/>
-      <c r="AH56" s="25"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="17"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18"/>
+      <c r="AG56" s="18"/>
+      <c r="AH56" s="19"/>
       <c r="AI56" s="7"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="24"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="24"/>
-      <c r="AA57" s="25"/>
-      <c r="AB57" s="23"/>
-      <c r="AC57" s="24"/>
-      <c r="AD57" s="24"/>
-      <c r="AE57" s="24"/>
-      <c r="AF57" s="24"/>
-      <c r="AG57" s="24"/>
-      <c r="AH57" s="25"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+      <c r="X57" s="18"/>
+      <c r="Y57" s="18"/>
+      <c r="Z57" s="18"/>
+      <c r="AA57" s="19"/>
+      <c r="AB57" s="17"/>
+      <c r="AC57" s="18"/>
+      <c r="AD57" s="18"/>
+      <c r="AE57" s="18"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="19"/>
       <c r="AI57" s="7"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="25"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="24"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="24"/>
-      <c r="AA58" s="25"/>
-      <c r="AB58" s="23"/>
-      <c r="AC58" s="24"/>
-      <c r="AD58" s="24"/>
-      <c r="AE58" s="24"/>
-      <c r="AF58" s="24"/>
-      <c r="AG58" s="24"/>
-      <c r="AH58" s="25"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="Y58" s="18"/>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="18"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18"/>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="19"/>
       <c r="AI58" s="7"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="25"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="24"/>
-      <c r="W59" s="24"/>
-      <c r="X59" s="24"/>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="24"/>
-      <c r="AA59" s="25"/>
-      <c r="AB59" s="23"/>
-      <c r="AC59" s="24"/>
-      <c r="AD59" s="24"/>
-      <c r="AE59" s="24"/>
-      <c r="AF59" s="24"/>
-      <c r="AG59" s="24"/>
-      <c r="AH59" s="25"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+      <c r="X59" s="18"/>
+      <c r="Y59" s="18"/>
+      <c r="Z59" s="18"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="17"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="18"/>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="19"/>
       <c r="AI59" s="7"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-      <c r="AA60" s="25"/>
-      <c r="AB60" s="23"/>
-      <c r="AC60" s="24"/>
-      <c r="AD60" s="24"/>
-      <c r="AE60" s="24"/>
-      <c r="AF60" s="24"/>
-      <c r="AG60" s="24"/>
-      <c r="AH60" s="25"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="18"/>
+      <c r="Y60" s="18"/>
+      <c r="Z60" s="18"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="18"/>
+      <c r="AD60" s="18"/>
+      <c r="AE60" s="18"/>
+      <c r="AF60" s="18"/>
+      <c r="AG60" s="18"/>
+      <c r="AH60" s="19"/>
       <c r="AI60" s="7"/>
     </row>
     <row r="61" spans="1:35" ht="12" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="24"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="24"/>
-      <c r="W61" s="24"/>
-      <c r="X61" s="24"/>
-      <c r="Y61" s="24"/>
-      <c r="Z61" s="24"/>
-      <c r="AA61" s="25"/>
-      <c r="AB61" s="23"/>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="24"/>
-      <c r="AE61" s="24"/>
-      <c r="AF61" s="24"/>
-      <c r="AG61" s="24"/>
-      <c r="AH61" s="25"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="18"/>
+      <c r="X61" s="18"/>
+      <c r="Y61" s="18"/>
+      <c r="Z61" s="18"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="18"/>
+      <c r="AD61" s="18"/>
+      <c r="AE61" s="18"/>
+      <c r="AF61" s="18"/>
+      <c r="AG61" s="18"/>
+      <c r="AH61" s="19"/>
       <c r="AI61" s="7"/>
     </row>
     <row r="62" spans="1:35" ht="12" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="24"/>
-      <c r="W62" s="24"/>
-      <c r="X62" s="24"/>
-      <c r="Y62" s="24"/>
-      <c r="Z62" s="24"/>
-      <c r="AA62" s="25"/>
-      <c r="AB62" s="23"/>
-      <c r="AC62" s="24"/>
-      <c r="AD62" s="24"/>
-      <c r="AE62" s="24"/>
-      <c r="AF62" s="24"/>
-      <c r="AG62" s="24"/>
-      <c r="AH62" s="25"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="18"/>
+      <c r="Y62" s="18"/>
+      <c r="Z62" s="18"/>
+      <c r="AA62" s="19"/>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="18"/>
+      <c r="AE62" s="18"/>
+      <c r="AF62" s="18"/>
+      <c r="AG62" s="18"/>
+      <c r="AH62" s="19"/>
       <c r="AI62" s="7"/>
     </row>
     <row r="63" spans="1:35" ht="12" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="24"/>
-      <c r="W63" s="24"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="25"/>
-      <c r="AB63" s="23"/>
-      <c r="AC63" s="24"/>
-      <c r="AD63" s="24"/>
-      <c r="AE63" s="24"/>
-      <c r="AF63" s="24"/>
-      <c r="AG63" s="24"/>
-      <c r="AH63" s="25"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="18"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="18"/>
+      <c r="AD63" s="18"/>
+      <c r="AE63" s="18"/>
+      <c r="AF63" s="18"/>
+      <c r="AG63" s="18"/>
+      <c r="AH63" s="19"/>
       <c r="AI63" s="7"/>
     </row>
     <row r="64" spans="1:35" ht="12" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="24"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
-      <c r="AA64" s="25"/>
-      <c r="AB64" s="23"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
-      <c r="AF64" s="24"/>
-      <c r="AG64" s="24"/>
-      <c r="AH64" s="25"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="18"/>
+      <c r="W64" s="18"/>
+      <c r="X64" s="18"/>
+      <c r="Y64" s="18"/>
+      <c r="Z64" s="18"/>
+      <c r="AA64" s="19"/>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="18"/>
+      <c r="AD64" s="18"/>
+      <c r="AE64" s="18"/>
+      <c r="AF64" s="18"/>
+      <c r="AG64" s="18"/>
+      <c r="AH64" s="19"/>
       <c r="AI64" s="7"/>
     </row>
     <row r="65" spans="1:35" ht="12" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="24"/>
-      <c r="W65" s="24"/>
-      <c r="X65" s="24"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="25"/>
-      <c r="AB65" s="23"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="24"/>
-      <c r="AH65" s="25"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="18"/>
+      <c r="Y65" s="18"/>
+      <c r="Z65" s="18"/>
+      <c r="AA65" s="19"/>
+      <c r="AB65" s="17"/>
+      <c r="AC65" s="18"/>
+      <c r="AD65" s="18"/>
+      <c r="AE65" s="18"/>
+      <c r="AF65" s="18"/>
+      <c r="AG65" s="18"/>
+      <c r="AH65" s="19"/>
       <c r="AI65" s="7"/>
     </row>
     <row r="66" spans="1:35" ht="12" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="25"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="25"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="25"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="18"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="18"/>
+      <c r="AE66" s="18"/>
+      <c r="AF66" s="18"/>
+      <c r="AG66" s="18"/>
+      <c r="AH66" s="19"/>
       <c r="AI66" s="7"/>
     </row>
     <row r="67" spans="1:35" ht="12" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="24"/>
-      <c r="Y67" s="24"/>
-      <c r="Z67" s="24"/>
-      <c r="AA67" s="25"/>
-      <c r="AB67" s="23"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="24"/>
-      <c r="AH67" s="25"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+      <c r="X67" s="18"/>
+      <c r="Y67" s="18"/>
+      <c r="Z67" s="18"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="18"/>
+      <c r="AD67" s="18"/>
+      <c r="AE67" s="18"/>
+      <c r="AF67" s="18"/>
+      <c r="AG67" s="18"/>
+      <c r="AH67" s="19"/>
       <c r="AI67" s="7"/>
     </row>
     <row r="68" spans="1:35" ht="12" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="24"/>
-      <c r="W68" s="24"/>
-      <c r="X68" s="24"/>
-      <c r="Y68" s="24"/>
-      <c r="Z68" s="24"/>
-      <c r="AA68" s="25"/>
-      <c r="AB68" s="23"/>
-      <c r="AC68" s="24"/>
-      <c r="AD68" s="24"/>
-      <c r="AE68" s="24"/>
-      <c r="AF68" s="24"/>
-      <c r="AG68" s="24"/>
-      <c r="AH68" s="25"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="18"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="17"/>
+      <c r="AC68" s="18"/>
+      <c r="AD68" s="18"/>
+      <c r="AE68" s="18"/>
+      <c r="AF68" s="18"/>
+      <c r="AG68" s="18"/>
+      <c r="AH68" s="19"/>
       <c r="AI68" s="7"/>
     </row>
     <row r="69" spans="1:35" ht="12" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="25"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="25"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="25"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+      <c r="X69" s="18"/>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="18"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="17"/>
+      <c r="AC69" s="18"/>
+      <c r="AD69" s="18"/>
+      <c r="AE69" s="18"/>
+      <c r="AF69" s="18"/>
+      <c r="AG69" s="18"/>
+      <c r="AH69" s="19"/>
       <c r="AI69" s="7"/>
     </row>
     <row r="70" spans="1:35" ht="12" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="24"/>
-      <c r="T70" s="25"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="24"/>
-      <c r="W70" s="24"/>
-      <c r="X70" s="24"/>
-      <c r="Y70" s="24"/>
-      <c r="Z70" s="24"/>
-      <c r="AA70" s="25"/>
-      <c r="AB70" s="23"/>
-      <c r="AC70" s="24"/>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="24"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="25"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="19"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="18"/>
+      <c r="X70" s="18"/>
+      <c r="Y70" s="18"/>
+      <c r="Z70" s="18"/>
+      <c r="AA70" s="19"/>
+      <c r="AB70" s="17"/>
+      <c r="AC70" s="18"/>
+      <c r="AD70" s="18"/>
+      <c r="AE70" s="18"/>
+      <c r="AF70" s="18"/>
+      <c r="AG70" s="18"/>
+      <c r="AH70" s="19"/>
       <c r="AI70" s="7"/>
     </row>
     <row r="71" spans="1:35" ht="12" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="24"/>
-      <c r="T71" s="25"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="24"/>
-      <c r="W71" s="24"/>
-      <c r="X71" s="24"/>
-      <c r="Y71" s="24"/>
-      <c r="Z71" s="24"/>
-      <c r="AA71" s="25"/>
-      <c r="AB71" s="23"/>
-      <c r="AC71" s="24"/>
-      <c r="AD71" s="24"/>
-      <c r="AE71" s="24"/>
-      <c r="AF71" s="24"/>
-      <c r="AG71" s="24"/>
-      <c r="AH71" s="25"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="18"/>
+      <c r="W71" s="18"/>
+      <c r="X71" s="18"/>
+      <c r="Y71" s="18"/>
+      <c r="Z71" s="18"/>
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="17"/>
+      <c r="AC71" s="18"/>
+      <c r="AD71" s="18"/>
+      <c r="AE71" s="18"/>
+      <c r="AF71" s="18"/>
+      <c r="AG71" s="18"/>
+      <c r="AH71" s="19"/>
       <c r="AI71" s="7"/>
     </row>
     <row r="72" spans="1:35" ht="12" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="25"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="24"/>
-      <c r="Y72" s="24"/>
-      <c r="Z72" s="24"/>
-      <c r="AA72" s="25"/>
-      <c r="AB72" s="23"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="24"/>
-      <c r="AE72" s="24"/>
-      <c r="AF72" s="24"/>
-      <c r="AG72" s="24"/>
-      <c r="AH72" s="25"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="18"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="18"/>
+      <c r="Y72" s="18"/>
+      <c r="Z72" s="18"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="17"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="18"/>
+      <c r="AE72" s="18"/>
+      <c r="AF72" s="18"/>
+      <c r="AG72" s="18"/>
+      <c r="AH72" s="19"/>
       <c r="AI72" s="7"/>
     </row>
     <row r="73" spans="1:35" ht="12" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="24"/>
-      <c r="T73" s="25"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="24"/>
-      <c r="W73" s="24"/>
-      <c r="X73" s="24"/>
-      <c r="Y73" s="24"/>
-      <c r="Z73" s="24"/>
-      <c r="AA73" s="25"/>
-      <c r="AB73" s="23"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="24"/>
-      <c r="AE73" s="24"/>
-      <c r="AF73" s="24"/>
-      <c r="AG73" s="24"/>
-      <c r="AH73" s="25"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="18"/>
+      <c r="W73" s="18"/>
+      <c r="X73" s="18"/>
+      <c r="Y73" s="18"/>
+      <c r="Z73" s="18"/>
+      <c r="AA73" s="19"/>
+      <c r="AB73" s="17"/>
+      <c r="AC73" s="18"/>
+      <c r="AD73" s="18"/>
+      <c r="AE73" s="18"/>
+      <c r="AF73" s="18"/>
+      <c r="AG73" s="18"/>
+      <c r="AH73" s="19"/>
       <c r="AI73" s="7"/>
     </row>
     <row r="74" spans="1:35" ht="12" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="24"/>
-      <c r="T74" s="25"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="24"/>
-      <c r="W74" s="24"/>
-      <c r="X74" s="24"/>
-      <c r="Y74" s="24"/>
-      <c r="Z74" s="24"/>
-      <c r="AA74" s="25"/>
-      <c r="AB74" s="23"/>
-      <c r="AC74" s="24"/>
-      <c r="AD74" s="24"/>
-      <c r="AE74" s="24"/>
-      <c r="AF74" s="24"/>
-      <c r="AG74" s="24"/>
-      <c r="AH74" s="25"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="18"/>
+      <c r="W74" s="18"/>
+      <c r="X74" s="18"/>
+      <c r="Y74" s="18"/>
+      <c r="Z74" s="18"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="18"/>
+      <c r="AD74" s="18"/>
+      <c r="AE74" s="18"/>
+      <c r="AF74" s="18"/>
+      <c r="AG74" s="18"/>
+      <c r="AH74" s="19"/>
       <c r="AI74" s="7"/>
     </row>
     <row r="75" spans="1:35" ht="12" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="23"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="24"/>
-      <c r="T75" s="25"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="24"/>
-      <c r="W75" s="24"/>
-      <c r="X75" s="24"/>
-      <c r="Y75" s="24"/>
-      <c r="Z75" s="24"/>
-      <c r="AA75" s="25"/>
-      <c r="AB75" s="23"/>
-      <c r="AC75" s="24"/>
-      <c r="AD75" s="24"/>
-      <c r="AE75" s="24"/>
-      <c r="AF75" s="24"/>
-      <c r="AG75" s="24"/>
-      <c r="AH75" s="25"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="18"/>
+      <c r="Y75" s="18"/>
+      <c r="Z75" s="18"/>
+      <c r="AA75" s="19"/>
+      <c r="AB75" s="17"/>
+      <c r="AC75" s="18"/>
+      <c r="AD75" s="18"/>
+      <c r="AE75" s="18"/>
+      <c r="AF75" s="18"/>
+      <c r="AG75" s="18"/>
+      <c r="AH75" s="19"/>
       <c r="AI75" s="7"/>
     </row>
     <row r="76" spans="1:35" ht="12" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="23"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
-      <c r="T76" s="25"/>
-      <c r="U76" s="23"/>
-      <c r="V76" s="24"/>
-      <c r="W76" s="24"/>
-      <c r="X76" s="24"/>
-      <c r="Y76" s="24"/>
-      <c r="Z76" s="24"/>
-      <c r="AA76" s="25"/>
-      <c r="AB76" s="23"/>
-      <c r="AC76" s="24"/>
-      <c r="AD76" s="24"/>
-      <c r="AE76" s="24"/>
-      <c r="AF76" s="24"/>
-      <c r="AG76" s="24"/>
-      <c r="AH76" s="25"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="18"/>
+      <c r="W76" s="18"/>
+      <c r="X76" s="18"/>
+      <c r="Y76" s="18"/>
+      <c r="Z76" s="18"/>
+      <c r="AA76" s="19"/>
+      <c r="AB76" s="17"/>
+      <c r="AC76" s="18"/>
+      <c r="AD76" s="18"/>
+      <c r="AE76" s="18"/>
+      <c r="AF76" s="18"/>
+      <c r="AG76" s="18"/>
+      <c r="AH76" s="19"/>
       <c r="AI76" s="7"/>
     </row>
     <row r="77" spans="1:35" ht="12" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24"/>
-      <c r="S77" s="24"/>
-      <c r="T77" s="25"/>
-      <c r="U77" s="23"/>
-      <c r="V77" s="24"/>
-      <c r="W77" s="24"/>
-      <c r="X77" s="24"/>
-      <c r="Y77" s="24"/>
-      <c r="Z77" s="24"/>
-      <c r="AA77" s="25"/>
-      <c r="AB77" s="23"/>
-      <c r="AC77" s="24"/>
-      <c r="AD77" s="24"/>
-      <c r="AE77" s="24"/>
-      <c r="AF77" s="24"/>
-      <c r="AG77" s="24"/>
-      <c r="AH77" s="25"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="18"/>
+      <c r="W77" s="18"/>
+      <c r="X77" s="18"/>
+      <c r="Y77" s="18"/>
+      <c r="Z77" s="18"/>
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="17"/>
+      <c r="AC77" s="18"/>
+      <c r="AD77" s="18"/>
+      <c r="AE77" s="18"/>
+      <c r="AF77" s="18"/>
+      <c r="AG77" s="18"/>
+      <c r="AH77" s="19"/>
       <c r="AI77" s="7"/>
     </row>
     <row r="78" spans="1:35" ht="12" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
-      <c r="T78" s="25"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="24"/>
-      <c r="X78" s="24"/>
-      <c r="Y78" s="24"/>
-      <c r="Z78" s="24"/>
-      <c r="AA78" s="25"/>
-      <c r="AB78" s="23"/>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="24"/>
-      <c r="AE78" s="24"/>
-      <c r="AF78" s="24"/>
-      <c r="AG78" s="24"/>
-      <c r="AH78" s="25"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="19"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="18"/>
+      <c r="W78" s="18"/>
+      <c r="X78" s="18"/>
+      <c r="Y78" s="18"/>
+      <c r="Z78" s="18"/>
+      <c r="AA78" s="19"/>
+      <c r="AB78" s="17"/>
+      <c r="AC78" s="18"/>
+      <c r="AD78" s="18"/>
+      <c r="AE78" s="18"/>
+      <c r="AF78" s="18"/>
+      <c r="AG78" s="18"/>
+      <c r="AH78" s="19"/>
       <c r="AI78" s="7"/>
     </row>
     <row r="79" spans="1:35" ht="12" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="24"/>
-      <c r="R79" s="24"/>
-      <c r="S79" s="24"/>
-      <c r="T79" s="25"/>
-      <c r="U79" s="23"/>
-      <c r="V79" s="24"/>
-      <c r="W79" s="24"/>
-      <c r="X79" s="24"/>
-      <c r="Y79" s="24"/>
-      <c r="Z79" s="24"/>
-      <c r="AA79" s="25"/>
-      <c r="AB79" s="23"/>
-      <c r="AC79" s="24"/>
-      <c r="AD79" s="24"/>
-      <c r="AE79" s="24"/>
-      <c r="AF79" s="24"/>
-      <c r="AG79" s="24"/>
-      <c r="AH79" s="25"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="18"/>
+      <c r="Y79" s="18"/>
+      <c r="Z79" s="18"/>
+      <c r="AA79" s="19"/>
+      <c r="AB79" s="17"/>
+      <c r="AC79" s="18"/>
+      <c r="AD79" s="18"/>
+      <c r="AE79" s="18"/>
+      <c r="AF79" s="18"/>
+      <c r="AG79" s="18"/>
+      <c r="AH79" s="19"/>
       <c r="AI79" s="7"/>
     </row>
     <row r="80" spans="1:35" ht="12" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="24"/>
-      <c r="T80" s="25"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="24"/>
-      <c r="W80" s="24"/>
-      <c r="X80" s="24"/>
-      <c r="Y80" s="24"/>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="25"/>
-      <c r="AB80" s="23"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="24"/>
-      <c r="AG80" s="24"/>
-      <c r="AH80" s="25"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="19"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
+      <c r="Z80" s="18"/>
+      <c r="AA80" s="19"/>
+      <c r="AB80" s="17"/>
+      <c r="AC80" s="18"/>
+      <c r="AD80" s="18"/>
+      <c r="AE80" s="18"/>
+      <c r="AF80" s="18"/>
+      <c r="AG80" s="18"/>
+      <c r="AH80" s="19"/>
       <c r="AI80" s="7"/>
     </row>
     <row r="81" spans="1:35" ht="12" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="24"/>
-      <c r="T81" s="25"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="24"/>
-      <c r="W81" s="24"/>
-      <c r="X81" s="24"/>
-      <c r="Y81" s="24"/>
-      <c r="Z81" s="24"/>
-      <c r="AA81" s="25"/>
-      <c r="AB81" s="23"/>
-      <c r="AC81" s="24"/>
-      <c r="AD81" s="24"/>
-      <c r="AE81" s="24"/>
-      <c r="AF81" s="24"/>
-      <c r="AG81" s="24"/>
-      <c r="AH81" s="25"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="19"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="18"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="18"/>
+      <c r="AA81" s="19"/>
+      <c r="AB81" s="17"/>
+      <c r="AC81" s="18"/>
+      <c r="AD81" s="18"/>
+      <c r="AE81" s="18"/>
+      <c r="AF81" s="18"/>
+      <c r="AG81" s="18"/>
+      <c r="AH81" s="19"/>
       <c r="AI81" s="7"/>
     </row>
     <row r="82" spans="1:35" ht="12" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="24"/>
-      <c r="T82" s="25"/>
-      <c r="U82" s="23"/>
-      <c r="V82" s="24"/>
-      <c r="W82" s="24"/>
-      <c r="X82" s="24"/>
-      <c r="Y82" s="24"/>
-      <c r="Z82" s="24"/>
-      <c r="AA82" s="25"/>
-      <c r="AB82" s="23"/>
-      <c r="AC82" s="24"/>
-      <c r="AD82" s="24"/>
-      <c r="AE82" s="24"/>
-      <c r="AF82" s="24"/>
-      <c r="AG82" s="24"/>
-      <c r="AH82" s="25"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="19"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="18"/>
+      <c r="W82" s="18"/>
+      <c r="X82" s="18"/>
+      <c r="Y82" s="18"/>
+      <c r="Z82" s="18"/>
+      <c r="AA82" s="19"/>
+      <c r="AB82" s="17"/>
+      <c r="AC82" s="18"/>
+      <c r="AD82" s="18"/>
+      <c r="AE82" s="18"/>
+      <c r="AF82" s="18"/>
+      <c r="AG82" s="18"/>
+      <c r="AH82" s="19"/>
       <c r="AI82" s="7"/>
     </row>
     <row r="83" spans="1:35" ht="12" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
-      <c r="T83" s="25"/>
-      <c r="U83" s="23"/>
-      <c r="V83" s="24"/>
-      <c r="W83" s="24"/>
-      <c r="X83" s="24"/>
-      <c r="Y83" s="24"/>
-      <c r="Z83" s="24"/>
-      <c r="AA83" s="25"/>
-      <c r="AB83" s="23"/>
-      <c r="AC83" s="24"/>
-      <c r="AD83" s="24"/>
-      <c r="AE83" s="24"/>
-      <c r="AF83" s="24"/>
-      <c r="AG83" s="24"/>
-      <c r="AH83" s="25"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="19"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="18"/>
+      <c r="W83" s="18"/>
+      <c r="X83" s="18"/>
+      <c r="Y83" s="18"/>
+      <c r="Z83" s="18"/>
+      <c r="AA83" s="19"/>
+      <c r="AB83" s="17"/>
+      <c r="AC83" s="18"/>
+      <c r="AD83" s="18"/>
+      <c r="AE83" s="18"/>
+      <c r="AF83" s="18"/>
+      <c r="AG83" s="18"/>
+      <c r="AH83" s="19"/>
       <c r="AI83" s="7"/>
     </row>
     <row r="84" spans="1:35" ht="12" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="24"/>
-      <c r="T84" s="25"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="24"/>
-      <c r="W84" s="24"/>
-      <c r="X84" s="24"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="24"/>
-      <c r="AA84" s="25"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="24"/>
-      <c r="AD84" s="24"/>
-      <c r="AE84" s="24"/>
-      <c r="AF84" s="24"/>
-      <c r="AG84" s="24"/>
-      <c r="AH84" s="25"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="18"/>
+      <c r="W84" s="18"/>
+      <c r="X84" s="18"/>
+      <c r="Y84" s="18"/>
+      <c r="Z84" s="18"/>
+      <c r="AA84" s="19"/>
+      <c r="AB84" s="17"/>
+      <c r="AC84" s="18"/>
+      <c r="AD84" s="18"/>
+      <c r="AE84" s="18"/>
+      <c r="AF84" s="18"/>
+      <c r="AG84" s="18"/>
+      <c r="AH84" s="19"/>
       <c r="AI84" s="7"/>
     </row>
     <row r="85" spans="1:35" ht="12" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="24"/>
-      <c r="T85" s="25"/>
-      <c r="U85" s="23"/>
-      <c r="V85" s="24"/>
-      <c r="W85" s="24"/>
-      <c r="X85" s="24"/>
-      <c r="Y85" s="24"/>
-      <c r="Z85" s="24"/>
-      <c r="AA85" s="25"/>
-      <c r="AB85" s="23"/>
-      <c r="AC85" s="24"/>
-      <c r="AD85" s="24"/>
-      <c r="AE85" s="24"/>
-      <c r="AF85" s="24"/>
-      <c r="AG85" s="24"/>
-      <c r="AH85" s="25"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="19"/>
+      <c r="U85" s="17"/>
+      <c r="V85" s="18"/>
+      <c r="W85" s="18"/>
+      <c r="X85" s="18"/>
+      <c r="Y85" s="18"/>
+      <c r="Z85" s="18"/>
+      <c r="AA85" s="19"/>
+      <c r="AB85" s="17"/>
+      <c r="AC85" s="18"/>
+      <c r="AD85" s="18"/>
+      <c r="AE85" s="18"/>
+      <c r="AF85" s="18"/>
+      <c r="AG85" s="18"/>
+      <c r="AH85" s="19"/>
       <c r="AI85" s="7"/>
     </row>
     <row r="86" spans="1:35" ht="12" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="24"/>
-      <c r="T86" s="25"/>
-      <c r="U86" s="23"/>
-      <c r="V86" s="24"/>
-      <c r="W86" s="24"/>
-      <c r="X86" s="24"/>
-      <c r="Y86" s="24"/>
-      <c r="Z86" s="24"/>
-      <c r="AA86" s="25"/>
-      <c r="AB86" s="23"/>
-      <c r="AC86" s="24"/>
-      <c r="AD86" s="24"/>
-      <c r="AE86" s="24"/>
-      <c r="AF86" s="24"/>
-      <c r="AG86" s="24"/>
-      <c r="AH86" s="25"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
+      <c r="X86" s="18"/>
+      <c r="Y86" s="18"/>
+      <c r="Z86" s="18"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="17"/>
+      <c r="AC86" s="18"/>
+      <c r="AD86" s="18"/>
+      <c r="AE86" s="18"/>
+      <c r="AF86" s="18"/>
+      <c r="AG86" s="18"/>
+      <c r="AH86" s="19"/>
       <c r="AI86" s="7"/>
     </row>
     <row r="87" spans="1:35" ht="12" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="25"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="24"/>
-      <c r="T87" s="25"/>
-      <c r="U87" s="23"/>
-      <c r="V87" s="24"/>
-      <c r="W87" s="24"/>
-      <c r="X87" s="24"/>
-      <c r="Y87" s="24"/>
-      <c r="Z87" s="24"/>
-      <c r="AA87" s="25"/>
-      <c r="AB87" s="23"/>
-      <c r="AC87" s="24"/>
-      <c r="AD87" s="24"/>
-      <c r="AE87" s="24"/>
-      <c r="AF87" s="24"/>
-      <c r="AG87" s="24"/>
-      <c r="AH87" s="25"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="18"/>
+      <c r="W87" s="18"/>
+      <c r="X87" s="18"/>
+      <c r="Y87" s="18"/>
+      <c r="Z87" s="18"/>
+      <c r="AA87" s="19"/>
+      <c r="AB87" s="17"/>
+      <c r="AC87" s="18"/>
+      <c r="AD87" s="18"/>
+      <c r="AE87" s="18"/>
+      <c r="AF87" s="18"/>
+      <c r="AG87" s="18"/>
+      <c r="AH87" s="19"/>
       <c r="AI87" s="7"/>
     </row>
     <row r="88" spans="1:35" ht="12" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="24"/>
-      <c r="T88" s="25"/>
-      <c r="U88" s="23"/>
-      <c r="V88" s="24"/>
-      <c r="W88" s="24"/>
-      <c r="X88" s="24"/>
-      <c r="Y88" s="24"/>
-      <c r="Z88" s="24"/>
-      <c r="AA88" s="25"/>
-      <c r="AB88" s="23"/>
-      <c r="AC88" s="24"/>
-      <c r="AD88" s="24"/>
-      <c r="AE88" s="24"/>
-      <c r="AF88" s="24"/>
-      <c r="AG88" s="24"/>
-      <c r="AH88" s="25"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="19"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="18"/>
+      <c r="W88" s="18"/>
+      <c r="X88" s="18"/>
+      <c r="Y88" s="18"/>
+      <c r="Z88" s="18"/>
+      <c r="AA88" s="19"/>
+      <c r="AB88" s="17"/>
+      <c r="AC88" s="18"/>
+      <c r="AD88" s="18"/>
+      <c r="AE88" s="18"/>
+      <c r="AF88" s="18"/>
+      <c r="AG88" s="18"/>
+      <c r="AH88" s="19"/>
       <c r="AI88" s="7"/>
     </row>
     <row r="89" spans="1:35" ht="12" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="25"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="24"/>
-      <c r="T89" s="25"/>
-      <c r="U89" s="23"/>
-      <c r="V89" s="24"/>
-      <c r="W89" s="24"/>
-      <c r="X89" s="24"/>
-      <c r="Y89" s="24"/>
-      <c r="Z89" s="24"/>
-      <c r="AA89" s="25"/>
-      <c r="AB89" s="23"/>
-      <c r="AC89" s="24"/>
-      <c r="AD89" s="24"/>
-      <c r="AE89" s="24"/>
-      <c r="AF89" s="24"/>
-      <c r="AG89" s="24"/>
-      <c r="AH89" s="25"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="19"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="18"/>
+      <c r="W89" s="18"/>
+      <c r="X89" s="18"/>
+      <c r="Y89" s="18"/>
+      <c r="Z89" s="18"/>
+      <c r="AA89" s="19"/>
+      <c r="AB89" s="17"/>
+      <c r="AC89" s="18"/>
+      <c r="AD89" s="18"/>
+      <c r="AE89" s="18"/>
+      <c r="AF89" s="18"/>
+      <c r="AG89" s="18"/>
+      <c r="AH89" s="19"/>
       <c r="AI89" s="7"/>
     </row>
     <row r="90" spans="1:35" ht="12" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="24"/>
-      <c r="T90" s="25"/>
-      <c r="U90" s="23"/>
-      <c r="V90" s="24"/>
-      <c r="W90" s="24"/>
-      <c r="X90" s="24"/>
-      <c r="Y90" s="24"/>
-      <c r="Z90" s="24"/>
-      <c r="AA90" s="25"/>
-      <c r="AB90" s="23"/>
-      <c r="AC90" s="24"/>
-      <c r="AD90" s="24"/>
-      <c r="AE90" s="24"/>
-      <c r="AF90" s="24"/>
-      <c r="AG90" s="24"/>
-      <c r="AH90" s="25"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="19"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="18"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="18"/>
+      <c r="Y90" s="18"/>
+      <c r="Z90" s="18"/>
+      <c r="AA90" s="19"/>
+      <c r="AB90" s="17"/>
+      <c r="AC90" s="18"/>
+      <c r="AD90" s="18"/>
+      <c r="AE90" s="18"/>
+      <c r="AF90" s="18"/>
+      <c r="AG90" s="18"/>
+      <c r="AH90" s="19"/>
       <c r="AI90" s="7"/>
     </row>
     <row r="91" spans="1:35" ht="12" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="24"/>
-      <c r="S91" s="24"/>
-      <c r="T91" s="25"/>
-      <c r="U91" s="23"/>
-      <c r="V91" s="24"/>
-      <c r="W91" s="24"/>
-      <c r="X91" s="24"/>
-      <c r="Y91" s="24"/>
-      <c r="Z91" s="24"/>
-      <c r="AA91" s="25"/>
-      <c r="AB91" s="23"/>
-      <c r="AC91" s="24"/>
-      <c r="AD91" s="24"/>
-      <c r="AE91" s="24"/>
-      <c r="AF91" s="24"/>
-      <c r="AG91" s="24"/>
-      <c r="AH91" s="25"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="19"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="18"/>
+      <c r="W91" s="18"/>
+      <c r="X91" s="18"/>
+      <c r="Y91" s="18"/>
+      <c r="Z91" s="18"/>
+      <c r="AA91" s="19"/>
+      <c r="AB91" s="17"/>
+      <c r="AC91" s="18"/>
+      <c r="AD91" s="18"/>
+      <c r="AE91" s="18"/>
+      <c r="AF91" s="18"/>
+      <c r="AG91" s="18"/>
+      <c r="AH91" s="19"/>
       <c r="AI91" s="7"/>
     </row>
     <row r="92" spans="1:35" ht="12" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="24"/>
-      <c r="Q92" s="24"/>
-      <c r="R92" s="24"/>
-      <c r="S92" s="24"/>
-      <c r="T92" s="25"/>
-      <c r="U92" s="23"/>
-      <c r="V92" s="24"/>
-      <c r="W92" s="24"/>
-      <c r="X92" s="24"/>
-      <c r="Y92" s="24"/>
-      <c r="Z92" s="24"/>
-      <c r="AA92" s="25"/>
-      <c r="AB92" s="23"/>
-      <c r="AC92" s="24"/>
-      <c r="AD92" s="24"/>
-      <c r="AE92" s="24"/>
-      <c r="AF92" s="24"/>
-      <c r="AG92" s="24"/>
-      <c r="AH92" s="25"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="18"/>
+      <c r="AA92" s="19"/>
+      <c r="AB92" s="17"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="18"/>
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="19"/>
       <c r="AI92" s="7"/>
     </row>
     <row r="93" spans="1:35" ht="12" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="25"/>
-      <c r="N93" s="23"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="24"/>
-      <c r="Q93" s="24"/>
-      <c r="R93" s="24"/>
-      <c r="S93" s="24"/>
-      <c r="T93" s="25"/>
-      <c r="U93" s="23"/>
-      <c r="V93" s="24"/>
-      <c r="W93" s="24"/>
-      <c r="X93" s="24"/>
-      <c r="Y93" s="24"/>
-      <c r="Z93" s="24"/>
-      <c r="AA93" s="25"/>
-      <c r="AB93" s="23"/>
-      <c r="AC93" s="24"/>
-      <c r="AD93" s="24"/>
-      <c r="AE93" s="24"/>
-      <c r="AF93" s="24"/>
-      <c r="AG93" s="24"/>
-      <c r="AH93" s="25"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="19"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="18"/>
+      <c r="W93" s="18"/>
+      <c r="X93" s="18"/>
+      <c r="Y93" s="18"/>
+      <c r="Z93" s="18"/>
+      <c r="AA93" s="19"/>
+      <c r="AB93" s="17"/>
+      <c r="AC93" s="18"/>
+      <c r="AD93" s="18"/>
+      <c r="AE93" s="18"/>
+      <c r="AF93" s="18"/>
+      <c r="AG93" s="18"/>
+      <c r="AH93" s="19"/>
       <c r="AI93" s="7"/>
     </row>
     <row r="94" spans="1:35" ht="12" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="25"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="24"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="24"/>
-      <c r="T94" s="25"/>
-      <c r="U94" s="23"/>
-      <c r="V94" s="24"/>
-      <c r="W94" s="24"/>
-      <c r="X94" s="24"/>
-      <c r="Y94" s="24"/>
-      <c r="Z94" s="24"/>
-      <c r="AA94" s="25"/>
-      <c r="AB94" s="23"/>
-      <c r="AC94" s="24"/>
-      <c r="AD94" s="24"/>
-      <c r="AE94" s="24"/>
-      <c r="AF94" s="24"/>
-      <c r="AG94" s="24"/>
-      <c r="AH94" s="25"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="18"/>
+      <c r="W94" s="18"/>
+      <c r="X94" s="18"/>
+      <c r="Y94" s="18"/>
+      <c r="Z94" s="18"/>
+      <c r="AA94" s="19"/>
+      <c r="AB94" s="17"/>
+      <c r="AC94" s="18"/>
+      <c r="AD94" s="18"/>
+      <c r="AE94" s="18"/>
+      <c r="AF94" s="18"/>
+      <c r="AG94" s="18"/>
+      <c r="AH94" s="19"/>
       <c r="AI94" s="7"/>
     </row>
     <row r="95" spans="1:35" ht="12" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="25"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="24"/>
-      <c r="R95" s="24"/>
-      <c r="S95" s="24"/>
-      <c r="T95" s="25"/>
-      <c r="U95" s="23"/>
-      <c r="V95" s="24"/>
-      <c r="W95" s="24"/>
-      <c r="X95" s="24"/>
-      <c r="Y95" s="24"/>
-      <c r="Z95" s="24"/>
-      <c r="AA95" s="25"/>
-      <c r="AB95" s="23"/>
-      <c r="AC95" s="24"/>
-      <c r="AD95" s="24"/>
-      <c r="AE95" s="24"/>
-      <c r="AF95" s="24"/>
-      <c r="AG95" s="24"/>
-      <c r="AH95" s="25"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="17"/>
+      <c r="V95" s="18"/>
+      <c r="W95" s="18"/>
+      <c r="X95" s="18"/>
+      <c r="Y95" s="18"/>
+      <c r="Z95" s="18"/>
+      <c r="AA95" s="19"/>
+      <c r="AB95" s="17"/>
+      <c r="AC95" s="18"/>
+      <c r="AD95" s="18"/>
+      <c r="AE95" s="18"/>
+      <c r="AF95" s="18"/>
+      <c r="AG95" s="18"/>
+      <c r="AH95" s="19"/>
       <c r="AI95" s="7"/>
     </row>
     <row r="96" spans="1:35" ht="12" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="25"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="25"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="24"/>
-      <c r="S96" s="24"/>
-      <c r="T96" s="25"/>
-      <c r="U96" s="23"/>
-      <c r="V96" s="24"/>
-      <c r="W96" s="24"/>
-      <c r="X96" s="24"/>
-      <c r="Y96" s="24"/>
-      <c r="Z96" s="24"/>
-      <c r="AA96" s="25"/>
-      <c r="AB96" s="23"/>
-      <c r="AC96" s="24"/>
-      <c r="AD96" s="24"/>
-      <c r="AE96" s="24"/>
-      <c r="AF96" s="24"/>
-      <c r="AG96" s="24"/>
-      <c r="AH96" s="25"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="19"/>
+      <c r="U96" s="17"/>
+      <c r="V96" s="18"/>
+      <c r="W96" s="18"/>
+      <c r="X96" s="18"/>
+      <c r="Y96" s="18"/>
+      <c r="Z96" s="18"/>
+      <c r="AA96" s="19"/>
+      <c r="AB96" s="17"/>
+      <c r="AC96" s="18"/>
+      <c r="AD96" s="18"/>
+      <c r="AE96" s="18"/>
+      <c r="AF96" s="18"/>
+      <c r="AG96" s="18"/>
+      <c r="AH96" s="19"/>
       <c r="AI96" s="7"/>
     </row>
     <row r="97" spans="1:35" ht="12" customHeight="1">
@@ -7042,304 +7042,208 @@
     </row>
   </sheetData>
   <mergeCells count="560">
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:T94"/>
-    <mergeCell ref="U94:AA94"/>
-    <mergeCell ref="AB94:AH94"/>
-    <mergeCell ref="U89:AA89"/>
-    <mergeCell ref="AB89:AH89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="G90:J90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:T90"/>
-    <mergeCell ref="U90:AA90"/>
-    <mergeCell ref="AB90:AH90"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="N93:T93"/>
-    <mergeCell ref="U93:AA93"/>
-    <mergeCell ref="AB93:AH93"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:T85"/>
-    <mergeCell ref="U85:AA85"/>
-    <mergeCell ref="AB85:AH85"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:T86"/>
-    <mergeCell ref="U86:AA86"/>
-    <mergeCell ref="AB86:AH86"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:T77"/>
-    <mergeCell ref="U77:AA77"/>
-    <mergeCell ref="AB77:AH77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:T78"/>
-    <mergeCell ref="U78:AA78"/>
-    <mergeCell ref="AB78:AH78"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:T70"/>
-    <mergeCell ref="U70:AA70"/>
-    <mergeCell ref="AB70:AH70"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:T73"/>
-    <mergeCell ref="U73:AA73"/>
-    <mergeCell ref="AB73:AH73"/>
-    <mergeCell ref="U65:AA65"/>
-    <mergeCell ref="AB65:AH65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:T66"/>
-    <mergeCell ref="U66:AA66"/>
-    <mergeCell ref="AB66:AH66"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:T69"/>
-    <mergeCell ref="U69:AA69"/>
-    <mergeCell ref="AB69:AH69"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:T61"/>
-    <mergeCell ref="U61:AA61"/>
-    <mergeCell ref="AB61:AH61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="N62:T62"/>
-    <mergeCell ref="U62:AA62"/>
-    <mergeCell ref="AB62:AH62"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:T53"/>
-    <mergeCell ref="U53:AA53"/>
-    <mergeCell ref="AB53:AH53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:T54"/>
-    <mergeCell ref="U54:AA54"/>
-    <mergeCell ref="AB54:AH54"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:T46"/>
-    <mergeCell ref="U46:AA46"/>
-    <mergeCell ref="AB46:AH46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:T49"/>
-    <mergeCell ref="U49:AA49"/>
-    <mergeCell ref="AB49:AH49"/>
-    <mergeCell ref="U41:AA41"/>
-    <mergeCell ref="AB41:AH41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:T42"/>
-    <mergeCell ref="U42:AA42"/>
-    <mergeCell ref="AB42:AH42"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:T45"/>
-    <mergeCell ref="U45:AA45"/>
-    <mergeCell ref="AB45:AH45"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:T37"/>
-    <mergeCell ref="U37:AA37"/>
-    <mergeCell ref="AB37:AH37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:T38"/>
-    <mergeCell ref="U38:AA38"/>
-    <mergeCell ref="AB38:AH38"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:T29"/>
-    <mergeCell ref="U29:AA29"/>
-    <mergeCell ref="AB29:AH29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:T30"/>
-    <mergeCell ref="U30:AA30"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="AB17:AH17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:T18"/>
-    <mergeCell ref="U18:AA18"/>
-    <mergeCell ref="AB18:AH18"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:T21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="AB21:AH21"/>
-    <mergeCell ref="AB6:AH6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="AB7:AH7"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:T13"/>
-    <mergeCell ref="U13:AA13"/>
-    <mergeCell ref="AB13:AH13"/>
-    <mergeCell ref="AB8:AH8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="U96:AA96"/>
-    <mergeCell ref="AB96:AH96"/>
-    <mergeCell ref="U95:AA95"/>
-    <mergeCell ref="AB95:AH95"/>
-    <mergeCell ref="U91:AA91"/>
-    <mergeCell ref="AB91:AH91"/>
-    <mergeCell ref="U92:AA92"/>
-    <mergeCell ref="AB92:AH92"/>
-    <mergeCell ref="U87:AA87"/>
-    <mergeCell ref="AB87:AH87"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:T14"/>
-    <mergeCell ref="U14:AA14"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:T17"/>
-    <mergeCell ref="U17:AA17"/>
-    <mergeCell ref="U88:AA88"/>
-    <mergeCell ref="AB88:AH88"/>
-    <mergeCell ref="U84:AA84"/>
-    <mergeCell ref="AB84:AH84"/>
-    <mergeCell ref="U83:AA83"/>
-    <mergeCell ref="AB83:AH83"/>
-    <mergeCell ref="U79:AA79"/>
-    <mergeCell ref="AB79:AH79"/>
-    <mergeCell ref="U80:AA80"/>
-    <mergeCell ref="AB80:AH80"/>
-    <mergeCell ref="U81:AA81"/>
-    <mergeCell ref="AB81:AH81"/>
-    <mergeCell ref="U82:AA82"/>
-    <mergeCell ref="AB82:AH82"/>
-    <mergeCell ref="U75:AA75"/>
-    <mergeCell ref="AB75:AH75"/>
-    <mergeCell ref="U76:AA76"/>
-    <mergeCell ref="AB76:AH76"/>
-    <mergeCell ref="U72:AA72"/>
-    <mergeCell ref="AB72:AH72"/>
-    <mergeCell ref="U71:AA71"/>
-    <mergeCell ref="AB71:AH71"/>
-    <mergeCell ref="U67:AA67"/>
-    <mergeCell ref="AB67:AH67"/>
-    <mergeCell ref="U68:AA68"/>
-    <mergeCell ref="AB68:AH68"/>
-    <mergeCell ref="U74:AA74"/>
-    <mergeCell ref="AB74:AH74"/>
-    <mergeCell ref="U63:AA63"/>
-    <mergeCell ref="AB63:AH63"/>
-    <mergeCell ref="U64:AA64"/>
-    <mergeCell ref="AB64:AH64"/>
-    <mergeCell ref="U60:AA60"/>
-    <mergeCell ref="AB60:AH60"/>
-    <mergeCell ref="U59:AA59"/>
-    <mergeCell ref="AB59:AH59"/>
-    <mergeCell ref="U55:AA55"/>
-    <mergeCell ref="AB55:AH55"/>
-    <mergeCell ref="U56:AA56"/>
-    <mergeCell ref="AB56:AH56"/>
-    <mergeCell ref="U57:AA57"/>
-    <mergeCell ref="AB57:AH57"/>
-    <mergeCell ref="U58:AA58"/>
-    <mergeCell ref="AB58:AH58"/>
-    <mergeCell ref="U51:AA51"/>
-    <mergeCell ref="AB51:AH51"/>
-    <mergeCell ref="U52:AA52"/>
-    <mergeCell ref="AB52:AH52"/>
-    <mergeCell ref="U48:AA48"/>
-    <mergeCell ref="AB48:AH48"/>
-    <mergeCell ref="U47:AA47"/>
-    <mergeCell ref="AB47:AH47"/>
-    <mergeCell ref="U43:AA43"/>
-    <mergeCell ref="AB43:AH43"/>
-    <mergeCell ref="U44:AA44"/>
-    <mergeCell ref="AB44:AH44"/>
-    <mergeCell ref="U50:AA50"/>
-    <mergeCell ref="AB50:AH50"/>
-    <mergeCell ref="U39:AA39"/>
-    <mergeCell ref="AB39:AH39"/>
-    <mergeCell ref="U40:AA40"/>
-    <mergeCell ref="AB40:AH40"/>
-    <mergeCell ref="U36:AA36"/>
-    <mergeCell ref="AB36:AH36"/>
-    <mergeCell ref="U35:AA35"/>
-    <mergeCell ref="AB35:AH35"/>
-    <mergeCell ref="U31:AA31"/>
-    <mergeCell ref="AB31:AH31"/>
-    <mergeCell ref="U32:AA32"/>
-    <mergeCell ref="AB32:AH32"/>
-    <mergeCell ref="U33:AA33"/>
-    <mergeCell ref="AB33:AH33"/>
-    <mergeCell ref="U34:AA34"/>
-    <mergeCell ref="AB34:AH34"/>
-    <mergeCell ref="U27:AA27"/>
-    <mergeCell ref="AB27:AH27"/>
-    <mergeCell ref="U28:AA28"/>
-    <mergeCell ref="AB28:AH28"/>
-    <mergeCell ref="U24:AA24"/>
-    <mergeCell ref="AB24:AH24"/>
-    <mergeCell ref="U23:AA23"/>
-    <mergeCell ref="AB23:AH23"/>
-    <mergeCell ref="U19:AA19"/>
-    <mergeCell ref="AB19:AH19"/>
-    <mergeCell ref="U20:AA20"/>
-    <mergeCell ref="AB20:AH20"/>
-    <mergeCell ref="U22:AA22"/>
-    <mergeCell ref="AB22:AH22"/>
-    <mergeCell ref="U25:AA25"/>
-    <mergeCell ref="AB25:AH25"/>
-    <mergeCell ref="U26:AA26"/>
-    <mergeCell ref="AB26:AH26"/>
-    <mergeCell ref="U15:AA15"/>
-    <mergeCell ref="AB15:AH15"/>
-    <mergeCell ref="U16:AA16"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="U12:AA12"/>
-    <mergeCell ref="AB12:AH12"/>
-    <mergeCell ref="U9:AA9"/>
-    <mergeCell ref="AB9:AH9"/>
-    <mergeCell ref="U10:AA10"/>
-    <mergeCell ref="AB10:AH10"/>
-    <mergeCell ref="U11:AA11"/>
-    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="A3:I4"/>
+    <mergeCell ref="J3:R4"/>
+    <mergeCell ref="S3:AA4"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:T11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:T12"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="J1:R2"/>
+    <mergeCell ref="S1:AA2"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:T8"/>
+    <mergeCell ref="U8:AA8"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="U6:AA6"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:T27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:T28"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:T23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:T24"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:T26"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:T36"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:T31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:T32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:T33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:T39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:T40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:T41"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:T51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:T52"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:T47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:T48"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:T50"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:T59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:T60"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:T55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:T56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:T57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:T58"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:T63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:T64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:T65"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:T75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:T76"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:T71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:T72"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:T74"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:T83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:T84"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="N79:T79"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="N80:T80"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:T81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:T82"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:T92"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="N87:T87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="N88:T88"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:T89"/>
     <mergeCell ref="D95:F95"/>
     <mergeCell ref="G95:J95"/>
     <mergeCell ref="K95:M95"/>
@@ -7364,70 +7268,272 @@
     <mergeCell ref="N25:T25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:J26"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:T91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="G92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:T92"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="N87:T87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="N88:T88"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:T89"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:T83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:T84"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="K79:M79"/>
-    <mergeCell ref="N79:T79"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="K80:M80"/>
-    <mergeCell ref="N80:T80"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:T81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:T82"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:T75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:T76"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:T71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:T72"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:T74"/>
+    <mergeCell ref="U27:AA27"/>
+    <mergeCell ref="AB27:AH27"/>
+    <mergeCell ref="U28:AA28"/>
+    <mergeCell ref="AB28:AH28"/>
+    <mergeCell ref="U24:AA24"/>
+    <mergeCell ref="AB24:AH24"/>
+    <mergeCell ref="U23:AA23"/>
+    <mergeCell ref="AB23:AH23"/>
+    <mergeCell ref="U19:AA19"/>
+    <mergeCell ref="AB19:AH19"/>
+    <mergeCell ref="U20:AA20"/>
+    <mergeCell ref="AB20:AH20"/>
+    <mergeCell ref="U22:AA22"/>
+    <mergeCell ref="AB22:AH22"/>
+    <mergeCell ref="U25:AA25"/>
+    <mergeCell ref="AB25:AH25"/>
+    <mergeCell ref="U26:AA26"/>
+    <mergeCell ref="AB26:AH26"/>
+    <mergeCell ref="U39:AA39"/>
+    <mergeCell ref="AB39:AH39"/>
+    <mergeCell ref="U40:AA40"/>
+    <mergeCell ref="AB40:AH40"/>
+    <mergeCell ref="U36:AA36"/>
+    <mergeCell ref="AB36:AH36"/>
+    <mergeCell ref="U35:AA35"/>
+    <mergeCell ref="AB35:AH35"/>
+    <mergeCell ref="U31:AA31"/>
+    <mergeCell ref="AB31:AH31"/>
+    <mergeCell ref="U32:AA32"/>
+    <mergeCell ref="AB32:AH32"/>
+    <mergeCell ref="U33:AA33"/>
+    <mergeCell ref="AB33:AH33"/>
+    <mergeCell ref="U34:AA34"/>
+    <mergeCell ref="AB34:AH34"/>
+    <mergeCell ref="U51:AA51"/>
+    <mergeCell ref="AB51:AH51"/>
+    <mergeCell ref="U52:AA52"/>
+    <mergeCell ref="AB52:AH52"/>
+    <mergeCell ref="U48:AA48"/>
+    <mergeCell ref="AB48:AH48"/>
+    <mergeCell ref="U47:AA47"/>
+    <mergeCell ref="AB47:AH47"/>
+    <mergeCell ref="U43:AA43"/>
+    <mergeCell ref="AB43:AH43"/>
+    <mergeCell ref="U44:AA44"/>
+    <mergeCell ref="AB44:AH44"/>
+    <mergeCell ref="U50:AA50"/>
+    <mergeCell ref="AB50:AH50"/>
+    <mergeCell ref="U63:AA63"/>
+    <mergeCell ref="AB63:AH63"/>
+    <mergeCell ref="U64:AA64"/>
+    <mergeCell ref="AB64:AH64"/>
+    <mergeCell ref="U60:AA60"/>
+    <mergeCell ref="AB60:AH60"/>
+    <mergeCell ref="U59:AA59"/>
+    <mergeCell ref="AB59:AH59"/>
+    <mergeCell ref="U55:AA55"/>
+    <mergeCell ref="AB55:AH55"/>
+    <mergeCell ref="U56:AA56"/>
+    <mergeCell ref="AB56:AH56"/>
+    <mergeCell ref="U57:AA57"/>
+    <mergeCell ref="AB57:AH57"/>
+    <mergeCell ref="U58:AA58"/>
+    <mergeCell ref="AB58:AH58"/>
+    <mergeCell ref="U75:AA75"/>
+    <mergeCell ref="AB75:AH75"/>
+    <mergeCell ref="U76:AA76"/>
+    <mergeCell ref="AB76:AH76"/>
+    <mergeCell ref="U72:AA72"/>
+    <mergeCell ref="AB72:AH72"/>
+    <mergeCell ref="U71:AA71"/>
+    <mergeCell ref="AB71:AH71"/>
+    <mergeCell ref="U67:AA67"/>
+    <mergeCell ref="AB67:AH67"/>
+    <mergeCell ref="U68:AA68"/>
+    <mergeCell ref="AB68:AH68"/>
+    <mergeCell ref="U74:AA74"/>
+    <mergeCell ref="AB74:AH74"/>
+    <mergeCell ref="U84:AA84"/>
+    <mergeCell ref="AB84:AH84"/>
+    <mergeCell ref="U83:AA83"/>
+    <mergeCell ref="AB83:AH83"/>
+    <mergeCell ref="U79:AA79"/>
+    <mergeCell ref="AB79:AH79"/>
+    <mergeCell ref="U80:AA80"/>
+    <mergeCell ref="AB80:AH80"/>
+    <mergeCell ref="U81:AA81"/>
+    <mergeCell ref="AB81:AH81"/>
+    <mergeCell ref="U82:AA82"/>
+    <mergeCell ref="AB82:AH82"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:T14"/>
+    <mergeCell ref="U14:AA14"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:T17"/>
+    <mergeCell ref="U17:AA17"/>
+    <mergeCell ref="U15:AA15"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="U16:AA16"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:T15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:T16"/>
+    <mergeCell ref="U96:AA96"/>
+    <mergeCell ref="AB96:AH96"/>
+    <mergeCell ref="U95:AA95"/>
+    <mergeCell ref="AB95:AH95"/>
+    <mergeCell ref="U91:AA91"/>
+    <mergeCell ref="AB91:AH91"/>
+    <mergeCell ref="U92:AA92"/>
+    <mergeCell ref="AB92:AH92"/>
+    <mergeCell ref="U87:AA87"/>
+    <mergeCell ref="AB87:AH87"/>
+    <mergeCell ref="U88:AA88"/>
+    <mergeCell ref="AB88:AH88"/>
+    <mergeCell ref="AB6:AH6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="AB7:AH7"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:T13"/>
+    <mergeCell ref="U13:AA13"/>
+    <mergeCell ref="AB13:AH13"/>
+    <mergeCell ref="AB8:AH8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="U12:AA12"/>
+    <mergeCell ref="AB12:AH12"/>
+    <mergeCell ref="U9:AA9"/>
+    <mergeCell ref="AB9:AH9"/>
+    <mergeCell ref="U10:AA10"/>
+    <mergeCell ref="AB10:AH10"/>
+    <mergeCell ref="U11:AA11"/>
+    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="AB17:AH17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:T18"/>
+    <mergeCell ref="U18:AA18"/>
+    <mergeCell ref="AB18:AH18"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:T21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="AB21:AH21"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:T19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:T20"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:T29"/>
+    <mergeCell ref="U29:AA29"/>
+    <mergeCell ref="AB29:AH29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:T30"/>
+    <mergeCell ref="U30:AA30"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:T37"/>
+    <mergeCell ref="U37:AA37"/>
+    <mergeCell ref="AB37:AH37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:T38"/>
+    <mergeCell ref="U38:AA38"/>
+    <mergeCell ref="AB38:AH38"/>
+    <mergeCell ref="U41:AA41"/>
+    <mergeCell ref="AB41:AH41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:T42"/>
+    <mergeCell ref="U42:AA42"/>
+    <mergeCell ref="AB42:AH42"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:T45"/>
+    <mergeCell ref="U45:AA45"/>
+    <mergeCell ref="AB45:AH45"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:T43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:T44"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:T46"/>
+    <mergeCell ref="U46:AA46"/>
+    <mergeCell ref="AB46:AH46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:T49"/>
+    <mergeCell ref="U49:AA49"/>
+    <mergeCell ref="AB49:AH49"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:T53"/>
+    <mergeCell ref="U53:AA53"/>
+    <mergeCell ref="AB53:AH53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:T54"/>
+    <mergeCell ref="U54:AA54"/>
+    <mergeCell ref="AB54:AH54"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:T61"/>
+    <mergeCell ref="U61:AA61"/>
+    <mergeCell ref="AB61:AH61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="N62:T62"/>
+    <mergeCell ref="U62:AA62"/>
+    <mergeCell ref="AB62:AH62"/>
+    <mergeCell ref="U65:AA65"/>
+    <mergeCell ref="AB65:AH65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:T66"/>
+    <mergeCell ref="U66:AA66"/>
+    <mergeCell ref="AB66:AH66"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:T69"/>
+    <mergeCell ref="U69:AA69"/>
+    <mergeCell ref="AB69:AH69"/>
     <mergeCell ref="D67:F67"/>
     <mergeCell ref="G67:J67"/>
     <mergeCell ref="K67:M67"/>
@@ -7436,176 +7542,70 @@
     <mergeCell ref="G68:J68"/>
     <mergeCell ref="K68:M68"/>
     <mergeCell ref="N68:T68"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:T63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:T64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:T65"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:T59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:T60"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:T55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:T56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:T57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:T58"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:T51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:T52"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:T47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:T48"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:T50"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:T43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:T44"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:T39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:T40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:T41"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:T35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:T36"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:T31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:T32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:T33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:T27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:T28"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:T23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:T24"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:T26"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:T19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:T20"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:T15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:T16"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:T11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:T12"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R2"/>
-    <mergeCell ref="S1:AA2"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:T8"/>
-    <mergeCell ref="U8:AA8"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="U6:AA6"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="A3:I4"/>
-    <mergeCell ref="J3:R4"/>
-    <mergeCell ref="S3:AA4"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:T70"/>
+    <mergeCell ref="U70:AA70"/>
+    <mergeCell ref="AB70:AH70"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:T73"/>
+    <mergeCell ref="U73:AA73"/>
+    <mergeCell ref="AB73:AH73"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:T77"/>
+    <mergeCell ref="U77:AA77"/>
+    <mergeCell ref="AB77:AH77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:T78"/>
+    <mergeCell ref="U78:AA78"/>
+    <mergeCell ref="AB78:AH78"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:T85"/>
+    <mergeCell ref="U85:AA85"/>
+    <mergeCell ref="AB85:AH85"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:T86"/>
+    <mergeCell ref="U86:AA86"/>
+    <mergeCell ref="AB86:AH86"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:T94"/>
+    <mergeCell ref="U94:AA94"/>
+    <mergeCell ref="AB94:AH94"/>
+    <mergeCell ref="U89:AA89"/>
+    <mergeCell ref="AB89:AH89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:T90"/>
+    <mergeCell ref="U90:AA90"/>
+    <mergeCell ref="AB90:AH90"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="N93:T93"/>
+    <mergeCell ref="U93:AA93"/>
+    <mergeCell ref="AB93:AH93"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:T91"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.15833333333333333" right="0.70000000000000007" top="0.3034722222222222" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.16" right="0.70000000000000007" top="0.30000000000000004" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="8" scale="63" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="100"/>
